--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -46,24 +46,24 @@
     <t>amu</t>
   </si>
   <si>
+    <t>anāpucchanta</t>
+  </si>
+  <si>
+    <t>passanta</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>anāpucchanta</t>
-  </si>
-  <si>
-    <t>passanta</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
     <t>gacchanta</t>
   </si>
   <si>
@@ -100,126 +100,132 @@
     <t>ākaṅkhamāna</t>
   </si>
   <si>
+    <t>methuna 1</t>
+  </si>
+  <si>
+    <t>pamatta 1</t>
+  </si>
+  <si>
+    <t>kāsāya 1</t>
+  </si>
+  <si>
+    <t>oḷārika 1</t>
+  </si>
+  <si>
+    <t>kusala 1</t>
+  </si>
+  <si>
+    <t>aroga</t>
+  </si>
+  <si>
+    <t>samannāgata</t>
+  </si>
+  <si>
+    <t>dakkha</t>
+  </si>
+  <si>
+    <t>hīna 1</t>
+  </si>
+  <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
+    <t>sukhuma 1</t>
+  </si>
+  <si>
     <t>anicca 1</t>
   </si>
   <si>
     <t>nicca</t>
   </si>
   <si>
+    <t>sandiṭṭhika</t>
+  </si>
+  <si>
+    <t>parama 1</t>
+  </si>
+  <si>
+    <t>dibba</t>
+  </si>
+  <si>
+    <t>kammaniya</t>
+  </si>
+  <si>
+    <t>anaṅgaṇa</t>
+  </si>
+  <si>
+    <t>pariyodāta</t>
+  </si>
+  <si>
+    <t>kevala 1</t>
+  </si>
+  <si>
+    <t>apara</t>
+  </si>
+  <si>
+    <t>dukkhita 1</t>
+  </si>
+  <si>
+    <t>odāta 1</t>
+  </si>
+  <si>
+    <t>aparikkamana</t>
+  </si>
+  <si>
     <t>anatta 1</t>
   </si>
   <si>
     <t>dhammika 2</t>
   </si>
   <si>
+    <t>sata 1</t>
+  </si>
+  <si>
+    <t>dakkhiṇa 1</t>
+  </si>
+  <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
     <t>byatta</t>
   </si>
   <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>avera 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>anuttara</t>
+  </si>
+  <si>
     <t>sāraṇīya 1</t>
   </si>
   <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>methuna 1</t>
-  </si>
-  <si>
-    <t>pamatta 1</t>
-  </si>
-  <si>
-    <t>kāsāya 1</t>
-  </si>
-  <si>
-    <t>oḷārika 1</t>
-  </si>
-  <si>
-    <t>kusala 1</t>
-  </si>
-  <si>
-    <t>aroga</t>
-  </si>
-  <si>
-    <t>samannāgata</t>
-  </si>
-  <si>
-    <t>dakkha</t>
-  </si>
-  <si>
-    <t>hīna 1</t>
-  </si>
-  <si>
-    <t>sandiṭṭhika</t>
-  </si>
-  <si>
-    <t>parama 1</t>
-  </si>
-  <si>
-    <t>dibba</t>
-  </si>
-  <si>
-    <t>kammaniya</t>
-  </si>
-  <si>
-    <t>anaṅgaṇa</t>
-  </si>
-  <si>
-    <t>pariyodāta</t>
-  </si>
-  <si>
-    <t>kevala 1</t>
-  </si>
-  <si>
-    <t>apara</t>
-  </si>
-  <si>
-    <t>dukkhita 1</t>
-  </si>
-  <si>
-    <t>odāta 1</t>
-  </si>
-  <si>
-    <t>aparikkamana</t>
-  </si>
-  <si>
-    <t>sata 1</t>
-  </si>
-  <si>
-    <t>dakkhiṇa 1</t>
-  </si>
-  <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>avera 1</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -283,12 +289,6 @@
     <t>ariya 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
-    <t>sukhuma 1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -301,99 +301,99 @@
     <t>sugata 2</t>
   </si>
   <si>
+    <t>desita 1</t>
+  </si>
+  <si>
+    <t>akkhāta</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>āgata 3</t>
+  </si>
+  <si>
+    <t>pahīna</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>kupita</t>
+  </si>
+  <si>
     <t>vutta 2</t>
   </si>
   <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
+    <t>ṭhita 2</t>
+  </si>
+  <si>
+    <t>samiñjita 2</t>
+  </si>
+  <si>
+    <t>nisinna 1</t>
+  </si>
+  <si>
+    <t>patta 5</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>abhūta 1</t>
+  </si>
+  <si>
+    <t>akata 2</t>
+  </si>
+  <si>
+    <t>vusita 1</t>
+  </si>
+  <si>
+    <t>khīṇa 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
     <t>anuppanna</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
+    <t>cuta 1</t>
+  </si>
+  <si>
+    <t>diṭṭha 1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1</t>
+  </si>
+  <si>
     <t>uppanna 1</t>
   </si>
   <si>
-    <t>paricita</t>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
   </si>
   <si>
     <t>āraddha 1</t>
   </si>
   <si>
-    <t>desita 1</t>
-  </si>
-  <si>
-    <t>akkhāta</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>āgata 3</t>
-  </si>
-  <si>
-    <t>pahīna</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>kupita</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
-    <t>ṭhita 2</t>
-  </si>
-  <si>
-    <t>nisinna 1</t>
-  </si>
-  <si>
-    <t>samiñjita 2</t>
-  </si>
-  <si>
-    <t>patta 5</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>abhūta 1</t>
-  </si>
-  <si>
-    <t>akata 2</t>
-  </si>
-  <si>
-    <t>vusita 1</t>
-  </si>
-  <si>
-    <t>khīṇa 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>cuta 1</t>
-  </si>
-  <si>
-    <t>diṭṭha 1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
     <t>dinna 1</t>
   </si>
   <si>
@@ -472,15 +472,15 @@
     <t>dasa 1</t>
   </si>
   <si>
+    <t>aṭṭha 1</t>
+  </si>
+  <si>
+    <t>nava 2</t>
+  </si>
+  <si>
     <t>satta 1</t>
   </si>
   <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>aṭṭha 1</t>
-  </si>
-  <si>
     <t>pañca</t>
   </si>
   <si>
@@ -562,93 +562,96 @@
     <t>dissati 1</t>
   </si>
   <si>
+    <t>pana</t>
+  </si>
+  <si>
+    <t>accayena 2</t>
+  </si>
+  <si>
+    <t>aññatra 2</t>
+  </si>
+  <si>
+    <t>sabbaso 1</t>
+  </si>
+  <si>
+    <t>sammā 2</t>
+  </si>
+  <si>
+    <t>ciraṃ</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>tathā</t>
+  </si>
+  <si>
+    <t>yathā 1</t>
+  </si>
+  <si>
+    <t>saccaṃ</t>
+  </si>
+  <si>
+    <t>hi 1</t>
+  </si>
+  <si>
+    <t>dūre 2</t>
+  </si>
+  <si>
+    <t>bahiddhā 1</t>
+  </si>
+  <si>
+    <t>sādhukaṃ</t>
+  </si>
+  <si>
+    <t>divasaṃ</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>sace</t>
+  </si>
+  <si>
     <t>atha 1</t>
   </si>
   <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>amutra</t>
+  </si>
+  <si>
+    <t>ito 2</t>
+  </si>
+  <si>
+    <t>pacchato 2</t>
+  </si>
+  <si>
+    <t>tiriyaṃ 1</t>
+  </si>
+  <si>
+    <t>adho 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>antamaso</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
+    <t>santike 1</t>
+  </si>
+  <si>
+    <t>avidūre</t>
+  </si>
+  <si>
     <t>kira 1</t>
   </si>
   <si>
-    <t>kho</t>
-  </si>
-  <si>
-    <t>pana</t>
-  </si>
-  <si>
-    <t>accayena 2</t>
-  </si>
-  <si>
-    <t>aññatra 2</t>
-  </si>
-  <si>
-    <t>sabbaso 1</t>
-  </si>
-  <si>
-    <t>sammā 2</t>
-  </si>
-  <si>
-    <t>ciraṃ</t>
-  </si>
-  <si>
-    <t>tathā</t>
-  </si>
-  <si>
-    <t>yathā 1</t>
-  </si>
-  <si>
-    <t>saccaṃ</t>
-  </si>
-  <si>
-    <t>hi 1</t>
-  </si>
-  <si>
-    <t>dūre 2</t>
-  </si>
-  <si>
-    <t>sādhukaṃ</t>
-  </si>
-  <si>
-    <t>divasaṃ</t>
-  </si>
-  <si>
-    <t>puna</t>
-  </si>
-  <si>
-    <t>sace</t>
-  </si>
-  <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>amutra</t>
-  </si>
-  <si>
-    <t>ito 2</t>
-  </si>
-  <si>
-    <t>pacchato 2</t>
-  </si>
-  <si>
-    <t>tiriyaṃ 1</t>
-  </si>
-  <si>
-    <t>adho 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>antamaso</t>
-  </si>
-  <si>
-    <t>santike 1</t>
-  </si>
-  <si>
-    <t>avidūre</t>
-  </si>
-  <si>
     <t>ṭhānaso 1</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>bahiddhā 1</t>
-  </si>
-  <si>
     <t>ce 1</t>
   </si>
   <si>
@@ -691,30 +691,318 @@
     <t>khajjamāna</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>vaccha 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
     <t>dhamma 15</t>
   </si>
   <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 02</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
     <t>byāpāda</t>
   </si>
   <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -724,6 +1012,51 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -736,339 +1069,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 02</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -1192,189 +1192,189 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>paṭisevati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>ārabhati 1</t>
+  </si>
+  <si>
+    <t>icchati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>vasati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>paṭisevati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>vasati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -1462,39 +1462,39 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>samāpajjati 2</t>
+  </si>
+  <si>
+    <t>ādiyati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upādiyati</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>samāpajjati 2</t>
-  </si>
-  <si>
-    <t>ādiyati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upādiyati</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1504,27 +1504,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1576,18 +1576,18 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -1636,54 +1636,54 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>appamāda</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>appamāda</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
+    <t>mama 2</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>no 4</t>
+  </si>
+  <si>
+    <t>no 6</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 7</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>mama 2</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 7</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>ahaṃ</t>
   </si>
   <si>
@@ -1699,18 +1699,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -1744,27 +1744,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -1819,12 +1819,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -1837,33 +1837,33 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>sabbāvant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>sabbāvant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -1891,15 +1891,15 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
+    <t>āyatiṃ</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
-    <t>āyatiṃ</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1966,24 +1966,24 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>gaccheyya</t>
+  </si>
+  <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>gaccheyya</t>
-  </si>
-  <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
@@ -2005,63 +2005,63 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>sikkhā 2</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>vīmaṃsā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sikkhā 2</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>vīmaṃsā 1</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>pajā 2</t>
   </si>
   <si>
@@ -2164,12 +2164,12 @@
     <t>dhītar</t>
   </si>
   <si>
+    <t>āgamma 1</t>
+  </si>
+  <si>
     <t>samādāya 2</t>
   </si>
   <si>
-    <t>āgamma 1</t>
-  </si>
-  <si>
     <t>anupādāya</t>
   </si>
   <si>
@@ -2197,33 +2197,33 @@
     <t>nisajja</t>
   </si>
   <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>visuddhi 1</t>
+  </si>
+  <si>
+    <t>āpatti 2</t>
+  </si>
+  <si>
     <t>diṭṭhi 1</t>
   </si>
   <si>
+    <t>samāpatti 1</t>
+  </si>
+  <si>
+    <t>ruci</t>
+  </si>
+  <si>
+    <t>sugati</t>
+  </si>
+  <si>
     <t>sati 2</t>
   </si>
   <si>
-    <t>ṭhiti 1</t>
-  </si>
-  <si>
-    <t>kuṭi 1</t>
-  </si>
-  <si>
-    <t>visuddhi 1</t>
-  </si>
-  <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>samāpatti 1</t>
-  </si>
-  <si>
-    <t>ruci</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
     <t>pīti 1</t>
   </si>
   <si>
@@ -2257,12 +2257,12 @@
     <t>ekato 1</t>
   </si>
   <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
     <t>tattha 1</t>
   </si>
   <si>
@@ -2320,159 +2320,159 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1</t>
+  </si>
+  <si>
+    <t>vattha 1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
+    <t>kusala 4</t>
   </si>
   <si>
     <t>rūpa 3</t>
   </si>
   <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1</t>
-  </si>
-  <si>
-    <t>vattha 1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
     <t>viññāṇa 1</t>
   </si>
   <si>
@@ -2566,39 +2566,39 @@
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>tāva 1</t>
+  </si>
+  <si>
+    <t>api 7</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>api 1</t>
+  </si>
+  <si>
+    <t>alaṃ 2</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
     <t>alaṃ 1</t>
   </si>
   <si>
-    <t>tāva 1</t>
-  </si>
-  <si>
-    <t>api 7</t>
-  </si>
-  <si>
-    <t>api 1</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
     <t>alaṃ 5</t>
   </si>
   <si>
@@ -2698,24 +2698,24 @@
     <t>that; such (person or place or thing); so and so</t>
   </si>
   <si>
+    <t>not asking permission; not informing</t>
+  </si>
+  <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>seeing; regarding; considering</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
     <t>remembering; recollecting</t>
   </si>
   <si>
-    <t>not asking permission; not informing</t>
-  </si>
-  <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>seeing; regarding; considering</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
     <t>going; walking; travelling</t>
   </si>
   <si>
@@ -2752,126 +2752,132 @@
     <t>wishing (for); desiring (for); seeking (for)</t>
   </si>
   <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>careless; heedless; negligent; inattentive; forgetful</t>
+  </si>
+  <si>
+    <t>brownish; colour of Buddhist monks' robes</t>
+  </si>
+  <si>
+    <t>course; gross; substantial; physical; material</t>
+  </si>
+  <si>
+    <t>healthy; beneficial; useful; good; wholesome</t>
+  </si>
+  <si>
+    <t>healthy; free from disease</t>
+  </si>
+  <si>
+    <t>possessing; having; lit. going together with</t>
+  </si>
+  <si>
+    <t>expert; skilled; able</t>
+  </si>
+  <si>
+    <t>low; inferior; deficient; worse</t>
+  </si>
+  <si>
+    <t>superior; sublime; refined; lit. brought forward</t>
+  </si>
+  <si>
+    <t>fine; subtle; refined</t>
+  </si>
+  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
     <t>constant; continuous; permanent; reliable</t>
   </si>
   <si>
+    <t>visible; evident; presently perceivable; true to experience; (comm) able to be seen by oneself</t>
+  </si>
+  <si>
+    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
+  </si>
+  <si>
+    <t>divine; heavenly; celestial</t>
+  </si>
+  <si>
+    <t>ready; workable; suitable for use</t>
+  </si>
+  <si>
+    <t>spotless; blemish free</t>
+  </si>
+  <si>
+    <t>pure; clean; shiny; bright</t>
+  </si>
+  <si>
+    <t>all; whole lot; altogether; total; entire; complete</t>
+  </si>
+  <si>
+    <t>another; after; further; next</t>
+  </si>
+  <si>
+    <t>afflicted; miserable; suffering</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>not having a surrounding walk; without an open space round it; not accessible</t>
+  </si>
+  <si>
     <t>impersonal; not oneself; non-subjective; essence-less; non subject to identify with</t>
   </si>
   <si>
     <t>righteous; just</t>
   </si>
   <si>
+    <t>mindful; present; attentive; recollecting</t>
+  </si>
+  <si>
+    <t>right (hand side)</t>
+  </si>
+  <si>
+    <t>middle; medium; middling; lit. belonging to the middle</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mentally poised; mentally balanced; equanimous; looking on; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasing; pleasant; charming; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do</t>
+  </si>
+  <si>
     <t>experienced; learned; competent; trained; lit. distinguished</t>
   </si>
   <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished (for)</t>
+  </si>
+  <si>
+    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>highest; unsurpassed; unexcelled; superior; lit. nothing higher</t>
+  </si>
+  <si>
     <t>polite; pleasant; charming; cordial; lit. to be desired</t>
   </si>
   <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished (for)</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>careless; heedless; negligent; inattentive; forgetful</t>
-  </si>
-  <si>
-    <t>brownish; colour of Buddhist monks' robes</t>
-  </si>
-  <si>
-    <t>course; gross; substantial; physical; material</t>
-  </si>
-  <si>
-    <t>healthy; beneficial; useful; good; wholesome</t>
-  </si>
-  <si>
-    <t>healthy; free from disease</t>
-  </si>
-  <si>
-    <t>possessing; having; lit. going together with</t>
-  </si>
-  <si>
-    <t>expert; skilled; able</t>
-  </si>
-  <si>
-    <t>low; inferior; deficient; worse</t>
-  </si>
-  <si>
-    <t>visible; evident; presently perceivable; true to experience; (comm) able to be seen by oneself</t>
-  </si>
-  <si>
-    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
-  </si>
-  <si>
-    <t>divine; heavenly; celestial</t>
-  </si>
-  <si>
-    <t>ready; workable; suitable for use</t>
-  </si>
-  <si>
-    <t>spotless; blemish free</t>
-  </si>
-  <si>
-    <t>pure; clean; shiny; bright</t>
-  </si>
-  <si>
-    <t>all; whole lot; altogether; total; entire; complete</t>
-  </si>
-  <si>
-    <t>another; after; further; next</t>
-  </si>
-  <si>
-    <t>afflicted; miserable; suffering</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>not having a surrounding walk; without an open space round it; not accessible</t>
-  </si>
-  <si>
-    <t>mindful; present; attentive; recollecting</t>
-  </si>
-  <si>
-    <t>right (hand side)</t>
-  </si>
-  <si>
-    <t>middle; medium; middling; lit. belonging to the middle</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mentally poised; mentally balanced; equanimous; looking on; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasing; pleasant; charming; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest; unsurpassed; unexcelled; superior; lit. nothing higher</t>
-  </si>
-  <si>
     <t>clearly aware; fully knowing; mindful; completely comprehending</t>
   </si>
   <si>
@@ -2935,12 +2941,6 @@
     <t>noble; distinguished; of the Buddha</t>
   </si>
   <si>
-    <t>superior; sublime; refined; lit. brought forward</t>
-  </si>
-  <si>
-    <t>fine; subtle; refined</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for</t>
   </si>
   <si>
@@ -2953,99 +2953,99 @@
     <t>Fortunate One; epithet of the Buddha; lit. well gone</t>
   </si>
   <si>
+    <t>preached; taught; explained; instructed; lit. pointed out</t>
+  </si>
+  <si>
+    <t>announced; told; declared</t>
+  </si>
+  <si>
+    <t>ordained; renounced; gone forth</t>
+  </si>
+  <si>
+    <t>come (from); arrived (from)</t>
+  </si>
+  <si>
+    <t>abandoned; dispelled; eliminated; removed; given up</t>
+  </si>
+  <si>
+    <t>done; made</t>
+  </si>
+  <si>
+    <t>indignant; angry; annoyed; outraged; offended</t>
+  </si>
+  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
+    <t>stationary; stable; stabilised; motionless</t>
+  </si>
+  <si>
+    <t>bent back; folded back; flexed back</t>
+  </si>
+  <si>
+    <t>seated</t>
+  </si>
+  <si>
+    <t>attained; reached; gained</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>attained; obtained; understood</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content</t>
+  </si>
+  <si>
+    <t>not become; not happened</t>
+  </si>
+  <si>
+    <t>not made; not created</t>
+  </si>
+  <si>
+    <t>fulfilled; completed; finished; lit. lived</t>
+  </si>
+  <si>
+    <t>consumed; spent; finished; exhausted; destroyed</t>
+  </si>
+  <si>
+    <t>freed; liberated; emancipated</t>
+  </si>
+  <si>
     <t>unborn; unarisen; not yet existent</t>
   </si>
   <si>
+    <t>practised; rehearsed; accustomed; familiarized; lit. completely accumulated</t>
+  </si>
+  <si>
+    <t>passed away; died; disappeared</t>
+  </si>
+  <si>
+    <t>seen; found; understood</t>
+  </si>
+  <si>
+    <t>freed; released; saved</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
     <t>born; arisen; produced; appeared; come into existence</t>
   </si>
   <si>
-    <t>practised; rehearsed; accustomed; familiarized; lit. completely accumulated</t>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; set up; established; lit. stood near</t>
   </si>
   <si>
     <t>aroused; applied; undertaken</t>
   </si>
   <si>
-    <t>preached; taught; explained; instructed; lit. pointed out</t>
-  </si>
-  <si>
-    <t>announced; told; declared</t>
-  </si>
-  <si>
-    <t>ordained; renounced; gone forth</t>
-  </si>
-  <si>
-    <t>come (from); arrived (from)</t>
-  </si>
-  <si>
-    <t>abandoned; dispelled; eliminated; removed; given up</t>
-  </si>
-  <si>
-    <t>done; made</t>
-  </si>
-  <si>
-    <t>indignant; angry; annoyed; outraged; offended</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
-    <t>stationary; stable; stabilised; motionless</t>
-  </si>
-  <si>
-    <t>seated</t>
-  </si>
-  <si>
-    <t>bent back; folded back; flexed back</t>
-  </si>
-  <si>
-    <t>attained; reached; gained</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>attained; obtained; understood</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content</t>
-  </si>
-  <si>
-    <t>not become; not happened</t>
-  </si>
-  <si>
-    <t>not made; not created</t>
-  </si>
-  <si>
-    <t>fulfilled; completed; finished; lit. lived</t>
-  </si>
-  <si>
-    <t>consumed; spent; finished; exhausted; destroyed</t>
-  </si>
-  <si>
-    <t>freed; liberated; emancipated</t>
-  </si>
-  <si>
-    <t>passed away; died; disappeared</t>
-  </si>
-  <si>
-    <t>seen; found; understood</t>
-  </si>
-  <si>
-    <t>freed; released; saved</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; set up; established; lit. stood near</t>
-  </si>
-  <si>
     <t>given; offered</t>
   </si>
   <si>
@@ -3124,15 +3124,15 @@
     <t>ten (10)</t>
   </si>
   <si>
+    <t>eight (8)</t>
+  </si>
+  <si>
+    <t>nine (9)</t>
+  </si>
+  <si>
     <t>seven (7)</t>
   </si>
   <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
     <t>five (5)</t>
   </si>
   <si>
@@ -3214,93 +3214,96 @@
     <t>is seen; is observed; is manifest</t>
   </si>
   <si>
+    <t>moreover; and now; but; and next</t>
+  </si>
+  <si>
+    <t>after the death (of); after the passing away; lit. with going beyond</t>
+  </si>
+  <si>
+    <t>apart (from); aside (from); other (than); except (for)</t>
+  </si>
+  <si>
+    <t>in every way; completely; altogether; in every respect</t>
+  </si>
+  <si>
+    <t>perfectly; rightly; correctly</t>
+  </si>
+  <si>
+    <t>for a long time</t>
+  </si>
+  <si>
+    <t>indeed; surely; certainly; truly</t>
+  </si>
+  <si>
+    <t>so; thus; in such a way; in that way; likewise; similarly</t>
+  </si>
+  <si>
+    <t>like; as; as per; according to; how; in whatever way</t>
+  </si>
+  <si>
+    <t>truly; really</t>
+  </si>
+  <si>
+    <t>indeed; certainly; truly; definitely</t>
+  </si>
+  <si>
+    <t>away (from); far away (from)</t>
+  </si>
+  <si>
+    <t>externally; outwardly</t>
+  </si>
+  <si>
+    <t>well; thoroughly; fully; completely</t>
+  </si>
+  <si>
+    <t>by day; during the day; for a day</t>
+  </si>
+  <si>
+    <t>again; once more</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
     <t>and; then; and also</t>
   </si>
   <si>
+    <t>thus; and so; this is; ' '</t>
+  </si>
+  <si>
+    <t>there; in such-and-such a place</t>
+  </si>
+  <si>
+    <t>(of place) from here; away from</t>
+  </si>
+  <si>
+    <t>behind; lit. from behind</t>
+  </si>
+  <si>
+    <t>across; horizontally; width-wise</t>
+  </si>
+  <si>
+    <t>below; under</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally; within himself</t>
   </si>
   <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of)</t>
+  </si>
+  <si>
+    <t>not far; near; not (very) remote</t>
+  </si>
+  <si>
     <t>really; truly; definitely</t>
   </si>
   <si>
-    <t>indeed; surely; certainly; truly</t>
-  </si>
-  <si>
-    <t>moreover; and now; but; and next</t>
-  </si>
-  <si>
-    <t>after the death (of); after the passing away; lit. with going beyond</t>
-  </si>
-  <si>
-    <t>apart (from); aside (from); other (than); except (for)</t>
-  </si>
-  <si>
-    <t>in every way; completely; altogether; in every respect</t>
-  </si>
-  <si>
-    <t>perfectly; rightly; correctly</t>
-  </si>
-  <si>
-    <t>for a long time</t>
-  </si>
-  <si>
-    <t>so; thus; in such a way; in that way; likewise; similarly</t>
-  </si>
-  <si>
-    <t>like; as; as per; according to; how; in whatever way</t>
-  </si>
-  <si>
-    <t>truly; really</t>
-  </si>
-  <si>
-    <t>indeed; certainly; truly; definitely</t>
-  </si>
-  <si>
-    <t>away (from); far away (from)</t>
-  </si>
-  <si>
-    <t>well; thoroughly; fully; completely</t>
-  </si>
-  <si>
-    <t>by day; during the day; for a day</t>
-  </si>
-  <si>
-    <t>again; once more</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>thus; and so; this is; ' '</t>
-  </si>
-  <si>
-    <t>there; in such-and-such a place</t>
-  </si>
-  <si>
-    <t>(of place) from here; away from</t>
-  </si>
-  <si>
-    <t>behind; lit. from behind</t>
-  </si>
-  <si>
-    <t>across; horizontally; width-wise</t>
-  </si>
-  <si>
-    <t>below; under</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of)</t>
-  </si>
-  <si>
-    <t>not far; near; not (very) remote</t>
-  </si>
-  <si>
     <t>on the spot; right there; immediately</t>
   </si>
   <si>
@@ -3325,9 +3328,6 @@
     <t>differently; otherwise; lit. in another way</t>
   </si>
   <si>
-    <t>externally; outwardly</t>
-  </si>
-  <si>
     <t>easily; comfortably; without difficulty</t>
   </si>
   <si>
@@ -3340,30 +3340,318 @@
     <t>being eaten (by); being devoured (by)</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
     <t>act; practice; behaviour</t>
   </si>
   <si>
+    <t>fault; offence; transgression; lit. going beyond (the norm)</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; speaking; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
+  </si>
+  <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>schism; break; split</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit; benefit; advantage</t>
+  </si>
+  <si>
+    <t>the wind; air</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
     <t>dislike; ill will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
   </si>
   <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; dung; faeces</t>
+  </si>
+  <si>
+    <t>urine; lit. flowing out</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>cross-legged sitting position</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; life; lit. breath</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -3373,6 +3661,51 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; hell; lit. going down</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
+    <t>food; fuel; sustenance</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -3385,339 +3718,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond (the norm)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; speaking; mentioning</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>schism; break; split</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; dung; faeces</t>
-  </si>
-  <si>
-    <t>urine; lit. flowing out</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>being; living being; life; lit. breath</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; hell; lit. going down</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>food; fuel; sustenance</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -3841,189 +3841,189 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>practices; indulges (in); engages (in); lit. associates</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>goes forth; ordains as monk; renounces the household life</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>begins; starts; arouses</t>
+  </si>
+  <si>
+    <t>wishes; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>breathes; inhales</t>
+  </si>
+  <si>
+    <t>wishes (for); desires; intends; plans</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; finds pleasure in; enjoys it; lit. jumps forward</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; lifts up; raises; takes out</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>leaves; abandons; gives up; forsakes</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>produces; generates; makes; lit. flows forth</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>take care of; look after; maintain; lit. carry around</t>
+  </si>
+  <si>
+    <t>lives; dwells</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
+  </si>
+  <si>
+    <t>tries; makes an effort; strives for; exerts oneself</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>enters; goes into</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>grows; increases; multiplies</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>practices; indulges (in); engages (in); lit. associates</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>breathes; inhales</t>
-  </si>
-  <si>
-    <t>wishes (for); desires; intends; plans</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; finds pleasure in; enjoys it; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; lifts up; raises; takes out</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>leaves; abandons; gives up; forsakes</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; lit. flows forth</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>take care of; look after; maintain; lit. carry around</t>
-  </si>
-  <si>
-    <t>lives; dwells</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>grows; increases; multiplies</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -4108,39 +4108,39 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>engages (in); practices; performs</t>
+  </si>
+  <si>
+    <t>takes; grasps; embraces</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>engages (in); practices; performs</t>
-  </si>
-  <si>
-    <t>takes; grasps; embraces</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -4150,27 +4150,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -4222,18 +4222,18 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>stomach; cavity of the abdomen</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>stomach; cavity of the abdomen</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -4282,51 +4282,51 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>our; of us</t>
+  </si>
+  <si>
     <t>by me</t>
   </si>
   <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>our; of us</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -4342,18 +4342,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -4387,27 +4387,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -4459,12 +4459,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -4477,33 +4477,33 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>entire; whole</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>entire; whole</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -4531,15 +4531,15 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
+    <t>in the future; for the future</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
-    <t>in the future; for the future</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -4606,24 +4606,24 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could go; would move; could walk</t>
+  </si>
+  <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could go; would move; could walk</t>
-  </si>
-  <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
@@ -4645,60 +4645,60 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>training; practice</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>inquiry; judgement; investigation; discrimination</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; insight</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>training; practice</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>inquiry; judgement; investigation; discrimination</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; insight</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
     <t>people; population; generation; mankind</t>
   </si>
   <si>
@@ -4798,12 +4798,12 @@
     <t>daughter</t>
   </si>
   <si>
+    <t>coming; approaching</t>
+  </si>
+  <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>coming; approaching</t>
-  </si>
-  <si>
     <t>not holding (onto); not grasping (onto); detaching (from)</t>
   </si>
   <si>
@@ -4831,33 +4831,33 @@
     <t>sitting down</t>
   </si>
   <si>
+    <t>stability; constancy; long lasting; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>cleanness; purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; transgression</t>
+  </si>
+  <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
+    <t>attainment; meditation achievement</t>
+  </si>
+  <si>
+    <t>liking; preference; inclination; approval; lit. pleasure</t>
+  </si>
+  <si>
+    <t>good destination; happy fate; heaven; lit. going well</t>
+  </si>
+  <si>
     <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
-  </si>
-  <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
-  </si>
-  <si>
-    <t>good destination; happy fate; heaven; lit. going well</t>
-  </si>
-  <si>
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
@@ -4891,12 +4891,12 @@
     <t>on one side</t>
   </si>
   <si>
+    <t>everywhere; in every place</t>
+  </si>
+  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; in every place</t>
-  </si>
-  <si>
     <t>there; in that place</t>
   </si>
   <si>
@@ -4951,159 +4951,159 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>worthless action; evil; crime; sin; wrongdoing; misdeed</t>
+  </si>
+  <si>
+    <t>being; living being</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
+  </si>
+  <si>
+    <t>homelessness</t>
+  </si>
+  <si>
+    <t>household life; domestic life</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure</t>
+  </si>
+  <si>
+    <t>welfare; good; benefit; blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
+  </si>
+  <si>
+    <t>full development; maturity; completion; plenty; fullness</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; reason; lit. tied down to</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone; treasure</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood</t>
+  </si>
+  <si>
+    <t>head; crown</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size</t>
+  </si>
+  <si>
+    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>side (of the body); flank</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; virtue; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>knowledge; understanding; insight</t>
+  </si>
+  <si>
+    <t>house; a dwelling place</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; hostility; animosity</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
+  </si>
+  <si>
+    <t>answer; explanation; exposition</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>fault; error; mistake; lit. to be avoided</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule; lit. part of training</t>
+  </si>
+  <si>
+    <t>danger; peril</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t xml:space="preserve">which is not given; something not offered </t>
   </si>
   <si>
-    <t>precept; instruction; training rule; lit. part of training</t>
-  </si>
-  <si>
-    <t>danger; peril</t>
+    <t>good; benefit; merit; good deed; doing good</t>
   </si>
   <si>
     <t>object of the eye; shape; sight</t>
   </si>
   <si>
-    <t>worthless action; evil; crime; sin; wrongdoing; misdeed</t>
-  </si>
-  <si>
-    <t>being; living being</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
-  </si>
-  <si>
-    <t>homelessness</t>
-  </si>
-  <si>
-    <t>household life; domestic life</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure</t>
-  </si>
-  <si>
-    <t>welfare; good; benefit; blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
-  </si>
-  <si>
-    <t>full development; maturity; completion; plenty; fullness</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; reason; lit. tied down to</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone; treasure</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>forest; wood</t>
-  </si>
-  <si>
-    <t>head; crown</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size</t>
-  </si>
-  <si>
-    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>side (of the body); flank</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; virtue; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>knowledge; understanding; insight</t>
-  </si>
-  <si>
-    <t>house; a dwelling place</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; hostility; animosity</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
-  </si>
-  <si>
-    <t>answer; explanation; exposition</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>fault; error; mistake; lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
     <t>awareness; consciousness; fifth of the five aggregates; lit. knowing</t>
   </si>
   <si>
@@ -5197,37 +5197,37 @@
     <t>a bone</t>
   </si>
   <si>
+    <t>that much; that far; as long as; to that extent; until; at least</t>
+  </si>
+  <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
     <t>surely?; didn't?; wouldn't?</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>just; only</t>
+  </si>
+  <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+  </si>
+  <si>
+    <t>how?; in what way?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; up to; until; from … to …</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
     <t>(it is) suitable (to); proper (to); worthy (for); lit. enough (to)</t>
-  </si>
-  <si>
-    <t>that much; that far; as long as; to that extent; until; at least</t>
-  </si>
-  <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>just; only</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
-  </si>
-  <si>
-    <t>how?; in what way?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; up to; until; from … to …</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
   </si>
   <si>
     <t>that's enough (of)! stop (with)!</t>
@@ -7548,7 +7548,7 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C101" t="s">
         <v>988</v>
@@ -7616,7 +7616,7 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C105" t="s">
         <v>992</v>
@@ -9523,7 +9523,7 @@
         <v>876</v>
       </c>
       <c r="C217" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D217" t="s">
         <v>876</v>
@@ -12563,7 +12563,7 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C396" t="s">
         <v>1282</v>
@@ -12648,7 +12648,7 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C401" t="s">
         <v>1287</v>
@@ -14263,7 +14263,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C496" t="s">
         <v>1381</v>
@@ -14297,7 +14297,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C498" t="s">
         <v>1383</v>
@@ -15167,7 +15167,7 @@
         <v>871</v>
       </c>
       <c r="C549" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="D549" t="s">
         <v>1786</v>
@@ -15184,7 +15184,7 @@
         <v>871</v>
       </c>
       <c r="C550" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="D550" t="s">
         <v>1786</v>
@@ -17343,7 +17343,7 @@
         <v>884</v>
       </c>
       <c r="C677" t="s">
-        <v>1560</v>
+        <v>1113</v>
       </c>
       <c r="D677" t="s">
         <v>1802</v>
@@ -17360,7 +17360,7 @@
         <v>884</v>
       </c>
       <c r="C678" t="s">
-        <v>1128</v>
+        <v>1560</v>
       </c>
       <c r="D678" t="s">
         <v>1802</v>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -46,60 +46,60 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>dakkha</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -235,6 +235,12 @@
     <t>oḷārika 2</t>
   </si>
   <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -262,36 +268,30 @@
     <t>abhikkanta 3</t>
   </si>
   <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -508,60 +508,60 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -595,12 +595,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -643,6 +646,9 @@
     <t>antamaso 1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -676,12 +682,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -697,480 +697,480 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
   </si>
   <si>
     <t>passāva</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
   </si>
   <si>
     <t>sakka 3</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna 1</t>
   </si>
   <si>
@@ -1213,177 +1213,177 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1396,12 +1396,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1426,36 +1426,36 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1468,6 +1468,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1477,33 +1480,30 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -1561,18 +1561,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -1585,6 +1585,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -1603,9 +1606,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1624,12 +1624,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1669,6 +1669,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -1690,9 +1693,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1756,6 +1756,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -1765,24 +1768,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1873,27 +1873,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -1909,36 +1912,33 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -1957,12 +1957,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -1984,15 +1984,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2020,6 +2020,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2068,12 +2074,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2116,48 +2116,48 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2179,24 +2179,24 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2218,21 +2218,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2242,45 +2242,45 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2401,6 +2401,9 @@
     <t>passa 1.1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -2449,24 +2452,21 @@
     <t>saraṇa 2.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
     <t>vassa 3</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>kusala 4</t>
   </si>
   <si>
@@ -2698,60 +2698,60 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -2776,12 +2776,12 @@
     <t>expert; skilled; able; adroit</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -2887,6 +2887,12 @@
     <t>(of food) solid; heavy; substantial</t>
   </si>
   <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -2914,36 +2920,30 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3160,60 +3160,60 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -3247,12 +3247,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -3265,9 +3268,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -3295,6 +3295,9 @@
     <t>even so much as; even with; even down to; with as little as</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -3328,9 +3331,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -3346,477 +3346,477 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
     <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
     <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
@@ -3859,177 +3859,177 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4042,12 +4042,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -4072,33 +4072,33 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -4111,6 +4111,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -4120,33 +4123,30 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -4204,18 +4204,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -4228,6 +4228,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -4246,9 +4249,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -4267,12 +4267,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -4312,6 +4312,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -4333,9 +4336,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -4399,6 +4399,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -4408,24 +4411,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -4516,27 +4516,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -4552,36 +4555,33 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -4600,12 +4600,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -4627,15 +4627,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -4663,6 +4663,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -4708,12 +4714,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -4756,45 +4756,45 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -4816,24 +4816,24 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -4855,21 +4855,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -4879,42 +4879,42 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5035,6 +5035,9 @@
     <t>(of the body) side; rib</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -5083,22 +5086,19 @@
     <t>shelter; refuge; help; lit. going to</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>good; benefit; merit; good deed; doing good</t>
@@ -9186,7 +9186,7 @@
         <v>876</v>
       </c>
       <c r="C197" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="D197" t="s">
         <v>876</v>
@@ -9203,7 +9203,7 @@
         <v>876</v>
       </c>
       <c r="C198" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D198" t="s">
         <v>876</v>
@@ -9220,7 +9220,7 @@
         <v>876</v>
       </c>
       <c r="C199" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D199" t="s">
         <v>876</v>
@@ -9237,7 +9237,7 @@
         <v>876</v>
       </c>
       <c r="C200" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D200" t="s">
         <v>876</v>
@@ -9254,7 +9254,7 @@
         <v>876</v>
       </c>
       <c r="C201" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D201" t="s">
         <v>876</v>
@@ -9271,7 +9271,7 @@
         <v>876</v>
       </c>
       <c r="C202" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D202" t="s">
         <v>876</v>
@@ -9288,7 +9288,7 @@
         <v>876</v>
       </c>
       <c r="C203" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D203" t="s">
         <v>876</v>
@@ -9305,7 +9305,7 @@
         <v>876</v>
       </c>
       <c r="C204" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D204" t="s">
         <v>876</v>
@@ -9322,7 +9322,7 @@
         <v>876</v>
       </c>
       <c r="C205" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D205" t="s">
         <v>876</v>
@@ -9339,7 +9339,7 @@
         <v>876</v>
       </c>
       <c r="C206" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D206" t="s">
         <v>876</v>
@@ -9356,7 +9356,7 @@
         <v>876</v>
       </c>
       <c r="C207" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D207" t="s">
         <v>876</v>
@@ -9373,7 +9373,7 @@
         <v>876</v>
       </c>
       <c r="C208" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D208" t="s">
         <v>876</v>
@@ -9390,7 +9390,7 @@
         <v>876</v>
       </c>
       <c r="C209" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D209" t="s">
         <v>876</v>
@@ -9407,7 +9407,7 @@
         <v>876</v>
       </c>
       <c r="C210" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D210" t="s">
         <v>876</v>
@@ -9424,7 +9424,7 @@
         <v>876</v>
       </c>
       <c r="C211" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D211" t="s">
         <v>876</v>
@@ -9441,7 +9441,7 @@
         <v>876</v>
       </c>
       <c r="C212" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D212" t="s">
         <v>876</v>
@@ -9458,7 +9458,7 @@
         <v>876</v>
       </c>
       <c r="C213" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D213" t="s">
         <v>876</v>
@@ -9475,7 +9475,7 @@
         <v>876</v>
       </c>
       <c r="C214" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D214" t="s">
         <v>876</v>
@@ -9492,7 +9492,7 @@
         <v>876</v>
       </c>
       <c r="C215" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D215" t="s">
         <v>876</v>
@@ -9509,7 +9509,7 @@
         <v>876</v>
       </c>
       <c r="C216" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D216" t="s">
         <v>876</v>
@@ -9526,7 +9526,7 @@
         <v>876</v>
       </c>
       <c r="C217" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="D217" t="s">
         <v>876</v>
@@ -12229,7 +12229,7 @@
         <v>874</v>
       </c>
       <c r="C376" t="s">
-        <v>1262</v>
+        <v>1135</v>
       </c>
       <c r="D376" t="s">
         <v>1756</v>
@@ -12246,7 +12246,7 @@
         <v>874</v>
       </c>
       <c r="C377" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D377" t="s">
         <v>1756</v>
@@ -12263,7 +12263,7 @@
         <v>874</v>
       </c>
       <c r="C378" t="s">
-        <v>1137</v>
+        <v>1263</v>
       </c>
       <c r="D378" t="s">
         <v>1756</v>
@@ -12566,7 +12566,7 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C396" t="s">
         <v>1281</v>
@@ -12719,7 +12719,7 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C405" t="s">
         <v>1290</v>
@@ -17346,7 +17346,7 @@
         <v>884</v>
       </c>
       <c r="C677" t="s">
-        <v>1113</v>
+        <v>1561</v>
       </c>
       <c r="D677" t="s">
         <v>1803</v>
@@ -17363,7 +17363,7 @@
         <v>884</v>
       </c>
       <c r="C678" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D678" t="s">
         <v>1803</v>
@@ -17380,7 +17380,7 @@
         <v>884</v>
       </c>
       <c r="C679" t="s">
-        <v>1562</v>
+        <v>1112</v>
       </c>
       <c r="D679" t="s">
         <v>1803</v>
@@ -17873,7 +17873,7 @@
         <v>885</v>
       </c>
       <c r="C708" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D708" t="s">
         <v>885</v>
@@ -17890,7 +17890,7 @@
         <v>885</v>
       </c>
       <c r="C709" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D709" t="s">
         <v>885</v>
@@ -18553,7 +18553,7 @@
         <v>876</v>
       </c>
       <c r="C748" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="D748" t="s">
         <v>876</v>
@@ -18570,7 +18570,7 @@
         <v>876</v>
       </c>
       <c r="C749" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="D749" t="s">
         <v>876</v>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -445,12 +445,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -3097,10 +3097,10 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
-  </si>
-  <si>
-    <t>tenth (10th)</t>
   </si>
   <si>
     <t>fifth (5th)</t>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -46,39 +46,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>jānanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>jānanta</t>
-  </si>
-  <si>
     <t>samanupassanta</t>
   </si>
   <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>tiṭṭhanta 2</t>
   </si>
   <si>
+    <t>apassanta</t>
+  </si>
+  <si>
     <t>ajānanta</t>
   </si>
   <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>apassanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>cavamāna</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>caramāna</t>
   </si>
   <si>
     <t>sampassamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>aparikkamana</t>
   </si>
   <si>
+    <t>anuttara</t>
+  </si>
+  <si>
     <t>anatta 1</t>
   </si>
   <si>
@@ -178,114 +181,111 @@
     <t>sata 1.1</t>
   </si>
   <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
+    <t>byatta</t>
+  </si>
+  <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>avera 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>bhūta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
     <t>dakkhiṇa 1</t>
   </si>
   <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>byatta</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>avera 1</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>bhūta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
@@ -370,33 +370,33 @@
     <t>paricita</t>
   </si>
   <si>
+    <t>diṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>uppanna 1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
+  </si>
+  <si>
+    <t>dinna 1</t>
+  </si>
+  <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>diṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>uppanna 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
-    <t>dinna 1</t>
-  </si>
-  <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>phuṭṭha 1</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>bhayato</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>anattato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>bahu</t>
   </si>
   <si>
@@ -442,6 +442,9 @@
     <t>viññū 1</t>
   </si>
   <si>
+    <t>chaṭṭha</t>
+  </si>
+  <si>
     <t>aṭṭhama 1</t>
   </si>
   <si>
@@ -466,27 +469,24 @@
     <t>paṭhama 1</t>
   </si>
   <si>
-    <t>chaṭṭha</t>
+    <t>nava 2</t>
+  </si>
+  <si>
+    <t>satta 1.1</t>
+  </si>
+  <si>
+    <t>pañca</t>
+  </si>
+  <si>
+    <t>cha 1.1</t>
+  </si>
+  <si>
+    <t>aṭṭha 1.1</t>
   </si>
   <si>
     <t>dasa 1.1</t>
   </si>
   <si>
-    <t>aṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>satta 1.1</t>
-  </si>
-  <si>
-    <t>pañca</t>
-  </si>
-  <si>
-    <t>cha 1.1</t>
-  </si>
-  <si>
     <t>sata 2.1</t>
   </si>
   <si>
@@ -538,6 +538,9 @@
     <t>virajjati 1</t>
   </si>
   <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>parimuccati</t>
   </si>
   <si>
@@ -550,9 +553,6 @@
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -595,96 +595,96 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>santike 1</t>
+  </si>
+  <si>
+    <t>dūre 2</t>
+  </si>
+  <si>
+    <t>bahiddhā 1</t>
+  </si>
+  <si>
+    <t>sādhukaṃ</t>
+  </si>
+  <si>
+    <t>divasaṃ</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>sace</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>amutra</t>
+  </si>
+  <si>
+    <t>ito 2</t>
+  </si>
+  <si>
+    <t>pacchato 2</t>
+  </si>
+  <si>
+    <t>tiriyaṃ 1</t>
+  </si>
+  <si>
+    <t>adho 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
     <t>ce 1</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
-    <t>dūre 2</t>
-  </si>
-  <si>
-    <t>bahiddhā 1</t>
-  </si>
-  <si>
-    <t>sādhukaṃ</t>
-  </si>
-  <si>
-    <t>divasaṃ</t>
-  </si>
-  <si>
-    <t>puna</t>
-  </si>
-  <si>
-    <t>sace</t>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>yoniso</t>
+  </si>
+  <si>
+    <t>ajjhattaṃ</t>
+  </si>
+  <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>kira 1</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>atha 2</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
   </si>
   <si>
     <t>atha 1</t>
   </si>
   <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>amutra</t>
-  </si>
-  <si>
-    <t>ito 2</t>
-  </si>
-  <si>
-    <t>pacchato 2</t>
-  </si>
-  <si>
-    <t>tiriyaṃ 1</t>
-  </si>
-  <si>
-    <t>adho 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>ajjhattaṃ</t>
-  </si>
-  <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>kira 1</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
-    <t>atha 2</t>
-  </si>
-  <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>yoniso</t>
-  </si>
-  <si>
     <t>saṃvijjamāna</t>
   </si>
   <si>
@@ -694,282 +694,330 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -988,15 +1036,9 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
     <t>ogha 1</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -1009,24 +1051,15 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
     <t>vūpasama 1</t>
   </si>
   <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
     <t>paṭilābha</t>
   </si>
   <si>
@@ -1063,24 +1096,15 @@
     <t>sahāya</t>
   </si>
   <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
     <t>paribbājaka</t>
   </si>
   <si>
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -1090,36 +1114,18 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -1147,9 +1153,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -1162,9 +1165,6 @@
     <t>passāva</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -1216,6 +1216,9 @@
     <t>pasavati 2</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -1231,99 +1234,96 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -1399,12 +1399,12 @@
     <t>seti 2</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>eti 1</t>
   </si>
   <si>
@@ -1471,42 +1471,48 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>upādiyati</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -1516,15 +1522,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1621,15 +1621,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1639,18 +1639,18 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
     <t>appamāda</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -1855,12 +1855,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -1891,6 +1891,9 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>dāni</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
@@ -1909,18 +1912,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -2029,6 +2029,9 @@
     <t>paññā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -2062,9 +2065,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -2101,12 +2101,12 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
@@ -2296,6 +2296,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -2305,9 +2308,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>sāvatthī</t>
   </si>
   <si>
@@ -2323,222 +2323,225 @@
     <t>pāpa 3</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
     <t>bhūta 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
   </si>
   <si>
     <t>arañña</t>
   </si>
   <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dassanāya 2</t>
   </si>
   <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
     <t>dukkaṭa 3</t>
   </si>
   <si>
@@ -2551,9 +2554,6 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya 1</t>
-  </si>
-  <si>
     <t>saṃyojana 1</t>
   </si>
   <si>
@@ -2581,30 +2581,30 @@
     <t>api 1.1</t>
   </si>
   <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>api 1.2</t>
+  </si>
+  <si>
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -2623,12 +2623,12 @@
     <t>āyu 2</t>
   </si>
   <si>
+    <t>vatthu 2</t>
+  </si>
+  <si>
     <t>cakkhu 1</t>
   </si>
   <si>
-    <t>vatthu 2</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -2698,39 +2698,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
     <t>seeing; perceiving</t>
   </si>
   <si>
     <t>standing; standing still</t>
   </si>
   <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
     <t>remembering; recollecting; keeping in mind</t>
   </si>
   <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>lasting; remaining; persisting; lit. standing</t>
   </si>
   <si>
+    <t>not seeing; not noticing; not aware</t>
+  </si>
+  <si>
     <t>not knowing; being ignorant (of)</t>
   </si>
   <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>not seeing; not noticing; not aware</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -2740,15 +2740,15 @@
     <t>falling away; dying</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>walking; walking about; wandering around (in); going around</t>
   </si>
   <si>
     <t>seeing; observing; considering</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
@@ -2821,6 +2821,9 @@
     <t>not accessible; not approachable; lit. with no space around</t>
   </si>
   <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
     <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
   </si>
   <si>
@@ -2830,114 +2833,111 @@
     <t>mindful; present; attentive</t>
   </si>
   <si>
+    <t>middle; middling; medium; medium-sized; moderate</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do; easy to make</t>
+  </si>
+  <si>
+    <t>experienced; learned; competent; trained; lit. distinguished</t>
+  </si>
+  <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
+  </si>
+  <si>
+    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>existing; born; living; lit. become</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
     <t>right (hand side)</t>
   </si>
   <si>
-    <t>middle; middling; medium; medium-sized; moderate</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do; easy to make</t>
-  </si>
-  <si>
-    <t>experienced; learned; competent; trained; lit. distinguished</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
-  </si>
-  <si>
-    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>existing; born; living; lit. become</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
@@ -3022,33 +3022,33 @@
     <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
   </si>
   <si>
+    <t>seen; found; visible</t>
+  </si>
+  <si>
+    <t>freed (from); released (from); saved (from)</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
+    <t>arisen; appeared; come into being</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; available; lit. stood near</t>
+  </si>
+  <si>
+    <t>given (to); offered (to)</t>
+  </si>
+  <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>seen; found; visible</t>
-  </si>
-  <si>
-    <t>freed (from); released (from); saved (from)</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>arisen; appeared; come into being</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; available; lit. stood near</t>
-  </si>
-  <si>
-    <t>given (to); offered (to)</t>
-  </si>
-  <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>touched (by); contacted (by); experienced</t>
   </si>
   <si>
@@ -3070,12 +3070,12 @@
     <t>as dangerous; as fearful</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>many; much; lots (of); a lot (of); great; large</t>
   </si>
   <si>
@@ -3094,6 +3094,9 @@
     <t>wise; intelligent; discerning; knowledgeable</t>
   </si>
   <si>
+    <t>sixth (6th)</t>
+  </si>
+  <si>
     <t>eighth (8th)</t>
   </si>
   <si>
@@ -3118,27 +3121,24 @@
     <t>first (1st); prime</t>
   </si>
   <si>
-    <t>sixth (6th)</t>
+    <t>nine (9)</t>
+  </si>
+  <si>
+    <t>seven (7)</t>
+  </si>
+  <si>
+    <t>five (5)</t>
+  </si>
+  <si>
+    <t>six (6)</t>
+  </si>
+  <si>
+    <t>eight (8)</t>
   </si>
   <si>
     <t>ten (10)</t>
   </si>
   <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>seven (7)</t>
-  </si>
-  <si>
-    <t>five (5)</t>
-  </si>
-  <si>
-    <t>six (6)</t>
-  </si>
-  <si>
     <t>one hundred (100)</t>
   </si>
   <si>
@@ -3190,6 +3190,9 @@
     <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
   </si>
   <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
   </si>
   <si>
@@ -3202,9 +3205,6 @@
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -3247,93 +3247,93 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
+    <t>away (from); far away (from); distant (from)</t>
+  </si>
+  <si>
+    <t>externally; outwardly</t>
+  </si>
+  <si>
+    <t>well; carefully; thoroughly; fully; completely</t>
+  </si>
+  <si>
+    <t>by day; during the day; for a day</t>
+  </si>
+  <si>
+    <t>again; once more</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
-    <t>away (from); far away (from); distant (from)</t>
-  </si>
-  <si>
-    <t>externally; outwardly</t>
-  </si>
-  <si>
-    <t>well; carefully; thoroughly; fully; completely</t>
-  </si>
-  <si>
-    <t>by day; during the day; for a day</t>
-  </si>
-  <si>
-    <t>again; once more</t>
+    <t>thus; like this; this is; and so</t>
+  </si>
+  <si>
+    <t>there; in such-and-such a place</t>
+  </si>
+  <si>
+    <t>(of place) from here; away from; lit. from this</t>
+  </si>
+  <si>
+    <t>behind; backwards; lit. from behind</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>below; under</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
+  </si>
+  <si>
+    <t>internally; inwardly; personally</t>
+  </si>
+  <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>really; truly; definitely</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
   </si>
   <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
-    <t>thus; like this; this is; and so</t>
-  </si>
-  <si>
-    <t>there; in such-and-such a place</t>
-  </si>
-  <si>
-    <t>(of place) from here; away from; lit. from this</t>
-  </si>
-  <si>
-    <t>behind; backwards; lit. from behind</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>below; under</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>internally; inwardly; personally</t>
-  </si>
-  <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>really; truly; definitely</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
-  </si>
-  <si>
     <t>existing (in); being found (in)</t>
   </si>
   <si>
@@ -3343,282 +3343,330 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -3637,15 +3685,9 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
     <t>(of water) flood; deluge; torrent</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -3658,24 +3700,15 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
     <t>peace (of); calming (of); subsiding (of); settling (of)</t>
   </si>
   <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
     <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
   </si>
   <si>
@@ -3712,24 +3745,15 @@
     <t>friend; companion; ally; fellow traveller; lit. going with</t>
   </si>
   <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -3739,36 +3763,18 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -3796,9 +3802,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -3808,9 +3811,6 @@
     <t>urine</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -3862,6 +3862,9 @@
     <t>produces; generates; makes; gives birth to; lit. flows forth</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -3877,99 +3880,96 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -4045,12 +4045,12 @@
     <t>sleeps</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>comes (to)</t>
   </si>
   <si>
@@ -4114,42 +4114,48 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -4159,15 +4165,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -4264,15 +4264,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -4282,18 +4282,18 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -4498,12 +4498,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -4534,6 +4534,9 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
@@ -4552,18 +4555,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -4741,12 +4741,12 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
@@ -4930,6 +4930,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -4939,9 +4942,6 @@
     <t>name of a city; modern Varanasi</t>
   </si>
   <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
     <t>name of a city; capital of Kosala</t>
   </si>
   <si>
@@ -4957,222 +4957,225 @@
     <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
   </si>
   <si>
     <t>forest; wood; wilds; wilderness; lit. remoteness</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
     <t>class of vinaya offence; wrong-doing; lit. badly done</t>
   </si>
   <si>
@@ -5185,9 +5188,6 @@
     <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
-  </si>
-  <si>
     <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
   </si>
   <si>
@@ -5215,30 +5215,30 @@
     <t>just; only</t>
   </si>
   <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
+  </si>
+  <si>
     <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
@@ -5257,10 +5257,10 @@
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>site; location; base; grounds; lit. ground</t>
+  </si>
+  <si>
     <t>eye</t>
-  </si>
-  <si>
-    <t>site; location; base; grounds; lit. ground</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -9186,7 +9186,7 @@
         <v>876</v>
       </c>
       <c r="C197" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="D197" t="s">
         <v>876</v>
@@ -9203,7 +9203,7 @@
         <v>876</v>
       </c>
       <c r="C198" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D198" t="s">
         <v>876</v>
@@ -9220,7 +9220,7 @@
         <v>876</v>
       </c>
       <c r="C199" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D199" t="s">
         <v>876</v>
@@ -9237,7 +9237,7 @@
         <v>876</v>
       </c>
       <c r="C200" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D200" t="s">
         <v>876</v>
@@ -9254,7 +9254,7 @@
         <v>876</v>
       </c>
       <c r="C201" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D201" t="s">
         <v>876</v>
@@ -9271,7 +9271,7 @@
         <v>876</v>
       </c>
       <c r="C202" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D202" t="s">
         <v>876</v>
@@ -9288,7 +9288,7 @@
         <v>876</v>
       </c>
       <c r="C203" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D203" t="s">
         <v>876</v>
@@ -9305,7 +9305,7 @@
         <v>876</v>
       </c>
       <c r="C204" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D204" t="s">
         <v>876</v>
@@ -9322,7 +9322,7 @@
         <v>876</v>
       </c>
       <c r="C205" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="D205" t="s">
         <v>876</v>
@@ -12229,7 +12229,7 @@
         <v>874</v>
       </c>
       <c r="C376" t="s">
-        <v>1135</v>
+        <v>1262</v>
       </c>
       <c r="D376" t="s">
         <v>1756</v>
@@ -12246,7 +12246,7 @@
         <v>874</v>
       </c>
       <c r="C377" t="s">
-        <v>1262</v>
+        <v>1136</v>
       </c>
       <c r="D377" t="s">
         <v>1756</v>
@@ -14266,7 +14266,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C496" t="s">
         <v>1380</v>
@@ -14300,7 +14300,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C498" t="s">
         <v>1382</v>
@@ -17193,7 +17193,7 @@
         <v>884</v>
       </c>
       <c r="C668" t="s">
-        <v>1552</v>
+        <v>1201</v>
       </c>
       <c r="D668" t="s">
         <v>1803</v>
@@ -17210,7 +17210,7 @@
         <v>884</v>
       </c>
       <c r="C669" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D669" t="s">
         <v>1803</v>
@@ -17227,7 +17227,7 @@
         <v>884</v>
       </c>
       <c r="C670" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D670" t="s">
         <v>1803</v>
@@ -17244,7 +17244,7 @@
         <v>884</v>
       </c>
       <c r="C671" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D671" t="s">
         <v>1803</v>
@@ -17261,7 +17261,7 @@
         <v>884</v>
       </c>
       <c r="C672" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D672" t="s">
         <v>1803</v>
@@ -17278,7 +17278,7 @@
         <v>884</v>
       </c>
       <c r="C673" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D673" t="s">
         <v>1803</v>
@@ -17295,7 +17295,7 @@
         <v>884</v>
       </c>
       <c r="C674" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D674" t="s">
         <v>1803</v>
@@ -17312,7 +17312,7 @@
         <v>884</v>
       </c>
       <c r="C675" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D675" t="s">
         <v>1803</v>
@@ -17329,7 +17329,7 @@
         <v>884</v>
       </c>
       <c r="C676" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D676" t="s">
         <v>1803</v>
@@ -17346,7 +17346,7 @@
         <v>884</v>
       </c>
       <c r="C677" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D677" t="s">
         <v>1803</v>
@@ -17363,7 +17363,7 @@
         <v>884</v>
       </c>
       <c r="C678" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D678" t="s">
         <v>1803</v>
@@ -17380,7 +17380,7 @@
         <v>884</v>
       </c>
       <c r="C679" t="s">
-        <v>1112</v>
+        <v>1562</v>
       </c>
       <c r="D679" t="s">
         <v>1803</v>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -31,30 +31,30 @@
     <t>sbs_class</t>
   </si>
   <si>
+    <t>sabba 1</t>
+  </si>
+  <si>
     <t>añña 1</t>
   </si>
   <si>
+    <t>para 1</t>
+  </si>
+  <si>
     <t>aññatara 1</t>
   </si>
   <si>
-    <t>sabba 1</t>
-  </si>
-  <si>
-    <t>para 1</t>
-  </si>
-  <si>
     <t>amu</t>
   </si>
   <si>
     <t>jānanta</t>
   </si>
   <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
@@ -85,327 +85,327 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>upapajjamāna</t>
+  </si>
+  <si>
     <t>cavamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>upapajjamāna</t>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>apara 1</t>
+  </si>
+  <si>
+    <t>anuttara</t>
+  </si>
+  <si>
+    <t>parama 1</t>
+  </si>
+  <si>
+    <t>pamatta 1</t>
+  </si>
+  <si>
+    <t>kusala 1</t>
+  </si>
+  <si>
+    <t>aroga</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
+    <t>anicca 1</t>
+  </si>
+  <si>
+    <t>nicca</t>
+  </si>
+  <si>
+    <t>dibba</t>
+  </si>
+  <si>
+    <t>suñña 2</t>
+  </si>
+  <si>
+    <t>ṭhita 2</t>
+  </si>
+  <si>
+    <t>kammaniya</t>
+  </si>
+  <si>
+    <t>anaṅgaṇa</t>
+  </si>
+  <si>
+    <t>pariyodāta</t>
+  </si>
+  <si>
+    <t>oḷārika 1</t>
+  </si>
+  <si>
+    <t>kevala 1</t>
+  </si>
+  <si>
+    <t>sata 1.1</t>
+  </si>
+  <si>
+    <t>sukhuma 1</t>
+  </si>
+  <si>
+    <t>byatta</t>
+  </si>
+  <si>
+    <t>dakkha</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>odāta 1</t>
+  </si>
+  <si>
+    <t>sāra 1</t>
+  </si>
+  <si>
+    <t>hīna 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>avera 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>samannāgata</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>dhammika 2</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
   </si>
   <si>
     <t>methuna 1</t>
   </si>
   <si>
-    <t>pamatta 1</t>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>sandiṭṭhika</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>anatta 1</t>
+  </si>
+  <si>
+    <t>aparikkamana</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
   </si>
   <si>
     <t>kāsāya 1</t>
   </si>
   <si>
-    <t>oḷārika 1</t>
-  </si>
-  <si>
-    <t>kusala 1</t>
-  </si>
-  <si>
-    <t>aroga</t>
-  </si>
-  <si>
-    <t>samannāgata</t>
-  </si>
-  <si>
-    <t>dakkha</t>
-  </si>
-  <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
-    <t>hīna 1</t>
-  </si>
-  <si>
-    <t>anicca 1</t>
-  </si>
-  <si>
-    <t>nicca</t>
-  </si>
-  <si>
-    <t>sandiṭṭhika</t>
-  </si>
-  <si>
-    <t>parama 1</t>
-  </si>
-  <si>
-    <t>dibba</t>
-  </si>
-  <si>
-    <t>ṭhita 2</t>
-  </si>
-  <si>
-    <t>kammaniya</t>
-  </si>
-  <si>
-    <t>anaṅgaṇa</t>
-  </si>
-  <si>
-    <t>pariyodāta</t>
-  </si>
-  <si>
-    <t>kevala 1</t>
-  </si>
-  <si>
-    <t>apara 1</t>
-  </si>
-  <si>
-    <t>odāta 1</t>
-  </si>
-  <si>
-    <t>aparikkamana</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>anatta 1</t>
-  </si>
-  <si>
-    <t>dhammika 2</t>
-  </si>
-  <si>
-    <t>sata 1.1</t>
-  </si>
-  <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>byatta</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>avera 1</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
+    <t>dakkhiṇa 1</t>
+  </si>
+  <si>
+    <t>panta 2</t>
   </si>
   <si>
     <t>bhūta 1</t>
   </si>
   <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
     <t>sagga 1.1</t>
   </si>
   <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sārambha 2.1</t>
   </si>
   <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>dakkhiṇa 1</t>
-  </si>
-  <si>
-    <t>panta 2</t>
-  </si>
-  <si>
-    <t>sāra 1</t>
-  </si>
-  <si>
-    <t>sukhuma 1</t>
-  </si>
-  <si>
-    <t>suñña 2</t>
-  </si>
-  <si>
     <t>sugata 2</t>
   </si>
   <si>
+    <t>akkhāta</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>āgata 3</t>
+  </si>
+  <si>
+    <t>nisinna 1</t>
+  </si>
+  <si>
+    <t>kupita</t>
+  </si>
+  <si>
+    <t>cuta 1.1</t>
+  </si>
+  <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
+    <t>vutta 2.1</t>
+  </si>
+  <si>
+    <t>dukkhita 1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>anuppanna</t>
+  </si>
+  <si>
     <t>desita 1</t>
   </si>
   <si>
-    <t>akkhāta</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>āgata 3</t>
+    <t>upaṭṭhita 1</t>
   </si>
   <si>
     <t>pahīna</t>
   </si>
   <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>kupita</t>
-  </si>
-  <si>
-    <t>vutta 2.1</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
+    <t>paricita</t>
+  </si>
+  <si>
+    <t>puṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>dinna 1</t>
+  </si>
+  <si>
+    <t>uppanna 1</t>
+  </si>
+  <si>
+    <t>phuṭṭha 1</t>
+  </si>
+  <si>
+    <t>khīṇa 1</t>
+  </si>
+  <si>
+    <t>diṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>āraddha 1.1</t>
+  </si>
+  <si>
+    <t>akata 2</t>
+  </si>
+  <si>
+    <t>abhūta 1</t>
   </si>
   <si>
     <t>samiñjita 2</t>
   </si>
   <si>
-    <t>nisinna 1</t>
-  </si>
-  <si>
-    <t>dukkhita 1</t>
-  </si>
-  <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>abhūta 1</t>
-  </si>
-  <si>
-    <t>akata 2</t>
-  </si>
-  <si>
     <t>vusita 1</t>
   </si>
   <si>
-    <t>khīṇa 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>anuppanna</t>
-  </si>
-  <si>
-    <t>paricita</t>
-  </si>
-  <si>
-    <t>diṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>uppanna 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
-    <t>dinna 1</t>
-  </si>
-  <si>
-    <t>cuta 1.1</t>
-  </si>
-  <si>
-    <t>phuṭṭha 1</t>
-  </si>
-  <si>
-    <t>āraddha 1.1</t>
+    <t>pāpaka 1.1</t>
   </si>
   <si>
     <t>upekkhaka</t>
   </si>
   <si>
-    <t>pāpaka 1.1</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -415,13 +415,16 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
+    <t>anattato</t>
+  </si>
+  <si>
     <t>bhayato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
-    <t>anattato</t>
+    <t>uju 1</t>
   </si>
   <si>
     <t>bahu</t>
@@ -430,9 +433,6 @@
     <t>garu 3</t>
   </si>
   <si>
-    <t>uju 1</t>
-  </si>
-  <si>
     <t>ātāpī</t>
   </si>
   <si>
@@ -442,57 +442,57 @@
     <t>viññū 1</t>
   </si>
   <si>
+    <t>dutiya 1</t>
+  </si>
+  <si>
+    <t>paṭhama 1</t>
+  </si>
+  <si>
     <t>tatiya 1.1</t>
   </si>
   <si>
-    <t>dutiya 1</t>
-  </si>
-  <si>
-    <t>paṭhama 1</t>
+    <t>aṭṭha 1.1</t>
   </si>
   <si>
     <t>nava 2</t>
   </si>
   <si>
+    <t>pañca</t>
+  </si>
+  <si>
     <t>satta 1.1</t>
   </si>
   <si>
-    <t>pañca</t>
-  </si>
-  <si>
     <t>cha 1.1</t>
   </si>
   <si>
-    <t>aṭṭha 1.1</t>
-  </si>
-  <si>
     <t>dasa 1.1</t>
   </si>
   <si>
+    <t>sahassa 1</t>
+  </si>
+  <si>
     <t>sata 2.1</t>
   </si>
   <si>
-    <t>sahassa 1</t>
-  </si>
-  <si>
     <t>chaṭṭha</t>
   </si>
   <si>
+    <t>catuttha 1</t>
+  </si>
+  <si>
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>pañcama</t>
+  </si>
+  <si>
     <t>dasama 1</t>
   </si>
   <si>
     <t>navama</t>
   </si>
   <si>
-    <t>pañcama</t>
-  </si>
-  <si>
-    <t>catuttha 1</t>
-  </si>
-  <si>
     <t>catu</t>
   </si>
   <si>
@@ -505,204 +505,219 @@
     <t>ti 1</t>
   </si>
   <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>paritassati</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vinassati</t>
+  </si>
+  <si>
     <t>pavuccati</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
   </si>
   <si>
     <t>nirujjhati</t>
   </si>
   <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>chijjati 1</t>
+  </si>
+  <si>
     <t>ñāyati 1</t>
   </si>
   <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
     <t>parinibbāyati 1</t>
   </si>
   <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>chijjati 1</t>
-  </si>
-  <si>
-    <t>paritassati</t>
-  </si>
-  <si>
-    <t>vinassati</t>
+    <t>aññatra 2</t>
+  </si>
+  <si>
+    <t>ciraṃ</t>
+  </si>
+  <si>
+    <t>ito 2</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
+    <t>dūre 2</t>
+  </si>
+  <si>
+    <t>bahiddhā 1</t>
+  </si>
+  <si>
+    <t>hi 1</t>
+  </si>
+  <si>
+    <t>divasaṃ</t>
+  </si>
+  <si>
+    <t>sādhukaṃ</t>
+  </si>
+  <si>
+    <t>ajjhattaṃ</t>
+  </si>
+  <si>
+    <t>tathā</t>
+  </si>
+  <si>
+    <t>sace</t>
+  </si>
+  <si>
+    <t>sabbaso 1</t>
+  </si>
+  <si>
+    <t>amutra</t>
+  </si>
+  <si>
+    <t>yoniso</t>
   </si>
   <si>
     <t>pana</t>
   </si>
   <si>
+    <t>pacchato 2</t>
+  </si>
+  <si>
+    <t>saccaṃ</t>
+  </si>
+  <si>
+    <t>tiriyaṃ 1</t>
+  </si>
+  <si>
+    <t>adho 1</t>
+  </si>
+  <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>kira 1</t>
+  </si>
+  <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>sammā 2</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>yathā 1</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
+  </si>
+  <si>
+    <t>atha 1</t>
+  </si>
+  <si>
+    <t>aññathā 1</t>
+  </si>
+  <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>aññatra 2</t>
-  </si>
-  <si>
-    <t>sabbaso 1</t>
-  </si>
-  <si>
-    <t>sammā 2</t>
-  </si>
-  <si>
-    <t>ciraṃ</t>
-  </si>
-  <si>
-    <t>kho</t>
-  </si>
-  <si>
-    <t>tathā</t>
-  </si>
-  <si>
-    <t>yathā 1</t>
-  </si>
-  <si>
-    <t>saccaṃ</t>
-  </si>
-  <si>
-    <t>hi 1</t>
-  </si>
-  <si>
-    <t>santike 1</t>
-  </si>
-  <si>
-    <t>dūre 2</t>
-  </si>
-  <si>
-    <t>bahiddhā 1</t>
-  </si>
-  <si>
-    <t>sādhukaṃ</t>
-  </si>
-  <si>
-    <t>divasaṃ</t>
-  </si>
-  <si>
-    <t>puna</t>
-  </si>
-  <si>
-    <t>sace</t>
-  </si>
-  <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>amutra</t>
-  </si>
-  <si>
-    <t>ito 2</t>
-  </si>
-  <si>
-    <t>pacchato 2</t>
-  </si>
-  <si>
-    <t>tiriyaṃ 1</t>
-  </si>
-  <si>
-    <t>adho 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>yoniso</t>
-  </si>
-  <si>
-    <t>ajjhattaṃ</t>
-  </si>
-  <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>kira 1</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
     <t>atha 2</t>
   </si>
   <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
-    <t>atha 1</t>
-  </si>
-  <si>
-    <t>aññathā 1</t>
+    <t>khajjamāna</t>
   </si>
   <si>
     <t>saṃvijjamāna</t>
   </si>
   <si>
-    <t>khajjamāna</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
     <t>cora</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
     <t>bhava 3</t>
   </si>
   <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -712,474 +727,459 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
     <t>vasa 1.2</t>
   </si>
   <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>antarāya</t>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
   </si>
   <si>
     <t>moggallāna 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
     <t>yāma 1</t>
   </si>
   <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
+    <t>sakka 3</t>
   </si>
   <si>
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>paṇḍita 2</t>
   </si>
   <si>
@@ -1195,202 +1195,205 @@
     <t>punabbhava</t>
   </si>
   <si>
+    <t>vibhaṅga 1</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>vibhaṅga 1</t>
-  </si>
-  <si>
     <t>pajahati</t>
   </si>
   <si>
     <t>paṭisevati 1</t>
   </si>
   <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>uddharati 2</t>
   </si>
   <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
   </si>
   <si>
     <t>pabbajati</t>
   </si>
   <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
     <t>passasati</t>
   </si>
   <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>ceteti 2</t>
   </si>
   <si>
-    <t>paṭisaṃvedeti</t>
+    <t>deti 1</t>
   </si>
   <si>
     <t>vedeti 1</t>
@@ -1399,9 +1402,6 @@
     <t>seti 2</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
@@ -1414,114 +1414,114 @@
     <t>sakkoti</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭiggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>suṇāti 1</t>
+  </si>
+  <si>
+    <t>suṇātu</t>
+  </si>
+  <si>
+    <t>pajānāti</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
     <t>paggaṇhāti 3</t>
   </si>
   <si>
-    <t>paṭiggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>suṇāti 1</t>
-  </si>
-  <si>
-    <t>suṇātu</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
-    <t>pajānāti</t>
-  </si>
-  <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>paṭiggaṇhāti 1</t>
+    <t>kassaka</t>
   </si>
   <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kassaka</t>
-  </si>
-  <si>
     <t>samāpajjati 2</t>
   </si>
   <si>
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>upādiyati</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
     <t>maññati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>upādiyati</t>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>amha 1.1</t>
-  </si>
-  <si>
-    <t>asi 2.1</t>
-  </si>
-  <si>
-    <t>attha 4.2</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1531,84 +1531,84 @@
     <t>pāturahosi</t>
   </si>
   <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>hotu 1</t>
+  </si>
+  <si>
+    <t>pahoti 2</t>
+  </si>
+  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu 1</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
-  </si>
-  <si>
-    <t>pahoti 2</t>
+    <t>sammodi</t>
   </si>
   <si>
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
     <t>paccassosi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
     <t>pakkāmi 1</t>
   </si>
   <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
+    <t>samādhi 1</t>
+  </si>
+  <si>
+    <t>añjali 1</t>
+  </si>
+  <si>
+    <t>gahapati</t>
+  </si>
+  <si>
+    <t>sāli</t>
+  </si>
+  <si>
     <t>muni 1</t>
   </si>
   <si>
-    <t>sāli</t>
+    <t>aggi</t>
   </si>
   <si>
     <t>kucchi 1</t>
   </si>
   <si>
-    <t>aggi</t>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
   </si>
   <si>
     <t>ñāti</t>
   </si>
   <si>
-    <t>gahapati</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>añjali 1</t>
-  </si>
-  <si>
-    <t>samādhi 1</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
     <t>byādhi</t>
   </si>
   <si>
@@ -1636,76 +1636,85 @@
     <t>āsi 1.1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>taca 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
+    <t>appamāda</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>abhisamaya</t>
+  </si>
+  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>appamāda</t>
-  </si>
-  <si>
-    <t>taca 1</t>
-  </si>
-  <si>
-    <t>abhisamaya</t>
-  </si>
-  <si>
     <t>mama 2</t>
   </si>
   <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>ahaṃ</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
+  </si>
+  <si>
+    <t>me 3</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 2.1</t>
-  </si>
-  <si>
-    <t>no 2.3</t>
-  </si>
-  <si>
-    <t>me 3</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
     <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>ahaṃ</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
+    <t>sobhati 2</t>
   </si>
   <si>
     <t>assasissati</t>
   </si>
   <si>
-    <t>sobhati 2</t>
-  </si>
-  <si>
     <t>passasissati</t>
   </si>
   <si>
+    <t>neti 1.1</t>
+  </si>
+  <si>
     <t>dhāressati</t>
   </si>
   <si>
-    <t>neti 1.1</t>
+    <t>no 1.1</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
+    <t>mā 1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -1714,18 +1723,9 @@
     <t>saddhiṃ</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1.3</t>
   </si>
   <si>
-    <t>no 1.1</t>
-  </si>
-  <si>
-    <t>mā 1</t>
-  </si>
-  <si>
     <t>bhavissati 1</t>
   </si>
   <si>
@@ -1744,45 +1744,45 @@
     <t>dassati 1.1</t>
   </si>
   <si>
+    <t>taṃ 2.1</t>
+  </si>
+  <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
+    <t>tumhe 1</t>
+  </si>
+  <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
+    <t>te 2.4</t>
+  </si>
+  <si>
     <t>vo 1.3</t>
   </si>
   <si>
+    <t>tvaṃ 1</t>
+  </si>
+  <si>
     <t>vo 1.2</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 2</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>taṃ 2.1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 2</t>
-  </si>
-  <si>
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>tumhe 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
-    <t>tvaṃ 1</t>
-  </si>
-  <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>te 2.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1798,42 +1798,42 @@
     <t>dassī 2</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
+    <t>dhammī 1</t>
+  </si>
+  <si>
+    <t>gavesī 1</t>
+  </si>
+  <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
+    <t>bhogī 1.1</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1.1</t>
-  </si>
-  <si>
-    <t>dhammī 1</t>
-  </si>
-  <si>
-    <t>anupassī 1</t>
-  </si>
-  <si>
-    <t>gavesī 1</t>
-  </si>
-  <si>
-    <t>anāgāmī</t>
-  </si>
-  <si>
-    <t>sakadāgāmī</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
+    <t>sabrahmacārī</t>
+  </si>
+  <si>
+    <t>medhāvī</t>
+  </si>
+  <si>
+    <t>pakkhī</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sabrahmacārī</t>
-  </si>
-  <si>
-    <t>medhāvī</t>
-  </si>
-  <si>
-    <t>pakkhī</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -1864,19 +1864,22 @@
     <t>cakkhumant 2</t>
   </si>
   <si>
+    <t>akkhātar</t>
+  </si>
+  <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>satthar 1</t>
   </si>
   <si>
+    <t>dātar 1</t>
+  </si>
+  <si>
     <t>kattar 1</t>
   </si>
   <si>
-    <t>akkhātar</t>
-  </si>
-  <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
-    <t>dātar 1</t>
+    <t>bhātar</t>
   </si>
   <si>
     <t>pitar</t>
@@ -1885,108 +1888,105 @@
     <t>mātāpitar</t>
   </si>
   <si>
-    <t>bhātar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>sabbadā</t>
+  </si>
+  <si>
     <t>dāni</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
+    <t>āyatiṃ</t>
+  </si>
+  <si>
+    <t>ca 1</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
-    <t>āyatiṃ</t>
-  </si>
-  <si>
     <t>vā 1</t>
   </si>
   <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>sadā</t>
+  </si>
+  <si>
     <t>yadā</t>
   </si>
   <si>
-    <t>sadā</t>
-  </si>
-  <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ca 1</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
-    <t>sabbadā</t>
+    <t>phāsu 2</t>
+  </si>
+  <si>
+    <t>bhikkhu</t>
+  </si>
+  <si>
+    <t>maccu</t>
   </si>
   <si>
     <t>garu 5</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
-    <t>bhikkhu</t>
-  </si>
-  <si>
-    <t>maccu</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
+    <t>mattaññū</t>
+  </si>
+  <si>
     <t>rattaññū</t>
   </si>
   <si>
     <t>vidū 1</t>
   </si>
   <si>
-    <t>mattaññū</t>
-  </si>
-  <si>
     <t>abhibhū 1</t>
   </si>
   <si>
     <t>lokavidū</t>
   </si>
   <si>
+    <t>gāha 2.2</t>
+  </si>
+  <si>
     <t>paṭighāta 1</t>
   </si>
   <si>
-    <t>gāha 2.2</t>
-  </si>
-  <si>
     <t>gaccheyya</t>
   </si>
   <si>
+    <t>passeyya 1</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
+    <t>upapajjeyya</t>
+  </si>
+  <si>
+    <t>uppajjeyya</t>
+  </si>
+  <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
-    <t>passeyya 1</t>
-  </si>
-  <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
-    <t>uppajjeyya</t>
-  </si>
-  <si>
-    <t>upapajjeyya</t>
-  </si>
-  <si>
     <t>āgaccheyya</t>
   </si>
   <si>
@@ -2002,102 +2002,102 @@
     <t>assa 3.1</t>
   </si>
   <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
+    <t>mettā</t>
+  </si>
+  <si>
+    <t>sacchikiriyā</t>
+  </si>
+  <si>
+    <t>upekkhā</t>
+  </si>
+  <si>
+    <t>saddhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
     <t>sikkhā 2</t>
   </si>
   <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>pajā 2</t>
+  </si>
+  <si>
+    <t>vipassanā</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>nibbidā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
     <t>gāthā 1</t>
   </si>
   <si>
-    <t>jarā</t>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
+    <t>vijjā 1</t>
+  </si>
+  <si>
+    <t>saññā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>avijjā</t>
+  </si>
+  <si>
+    <t>upasampadā 2</t>
+  </si>
+  <si>
+    <t>ṭīkā</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
   </si>
   <si>
     <t>vīmaṃsā 1</t>
   </si>
   <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sacchikiriyā</t>
-  </si>
-  <si>
-    <t>pajā 2</t>
-  </si>
-  <si>
-    <t>avijjā</t>
-  </si>
-  <si>
-    <t>upasampadā 2</t>
-  </si>
-  <si>
-    <t>upekkhā</t>
-  </si>
-  <si>
-    <t>ṭīkā</t>
-  </si>
-  <si>
-    <t>nibbidā</t>
-  </si>
-  <si>
-    <t>mettā</t>
-  </si>
-  <si>
-    <t>saññā 1</t>
-  </si>
-  <si>
-    <t>saddhā 1</t>
-  </si>
-  <si>
-    <t>vijjā 1</t>
-  </si>
-  <si>
-    <t>vipassanā</t>
-  </si>
-  <si>
     <t>jāneyya</t>
   </si>
   <si>
@@ -2107,132 +2107,132 @@
     <t>asammosa</t>
   </si>
   <si>
+    <t>hitvā</t>
+  </si>
+  <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>acchādetvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
-    <t>acchādetvā</t>
-  </si>
-  <si>
-    <t>hitvā</t>
-  </si>
-  <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>paggahetvā 2</t>
   </si>
   <si>
     <t>paṭissutvā</t>
   </si>
   <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>paggahetvā 2</t>
-  </si>
-  <si>
     <t>dhītar</t>
   </si>
   <si>
+    <t>samādāya 2</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
-    <t>samādāya 2</t>
-  </si>
-  <si>
     <t>anupādāya</t>
   </si>
   <si>
     <t>vineyya 1</t>
   </si>
   <si>
+    <t>abhinivissa</t>
+  </si>
+  <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>paṇidhāya 1</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
-    <t>abhinivissa</t>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
+    <t>diṭṭhi 1</t>
+  </si>
+  <si>
+    <t>sugati</t>
   </si>
   <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
-    <t>kuṭi 1</t>
+    <t>āpatti 2</t>
+  </si>
+  <si>
+    <t>vimutti</t>
   </si>
   <si>
     <t>visuddhi 1.1</t>
   </si>
   <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>diṭṭhi 1</t>
-  </si>
-  <si>
     <t>samāpatti 1</t>
   </si>
   <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
     <t>ruci</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
-    <t>vimutti</t>
-  </si>
-  <si>
     <t>hiri</t>
   </si>
   <si>
@@ -2242,42 +2242,42 @@
     <t>idha 1</t>
   </si>
   <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
     <t>tattha 2</t>
   </si>
   <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
   </si>
   <si>
     <t>ekato 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
+    <t>kuto 1</t>
   </si>
   <si>
     <t>tato 4</t>
   </si>
   <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
-    <t>kuto 1</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2287,348 +2287,348 @@
     <t>pipāsā</t>
   </si>
   <si>
+    <t>pāripūrī</t>
+  </si>
+  <si>
+    <t>anusāsanī</t>
+  </si>
+  <si>
+    <t>vesālī</t>
+  </si>
+  <si>
+    <t>bārāṇasī 1</t>
+  </si>
+  <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
+    <t>sāvatthī</t>
+  </si>
+  <si>
     <t>itthī 1</t>
   </si>
   <si>
     <t>nārī</t>
   </si>
   <si>
-    <t>pāripūrī</t>
-  </si>
-  <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
-    <t>anusāsanī</t>
-  </si>
-  <si>
-    <t>vesālī</t>
-  </si>
-  <si>
-    <t>bārāṇasī 1</t>
-  </si>
-  <si>
-    <t>sāvatthī</t>
-  </si>
-  <si>
     <t>abhabba 1</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 2</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>saṃyojana 1</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
   </si>
   <si>
     <t>pāpa 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
   </si>
   <si>
     <t>sukhāya</t>
   </si>
   <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>sīla 1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
   </si>
   <si>
     <t>hita 3</t>
   </si>
   <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>brahmacariya 1</t>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>sutta 2.1</t>
   </si>
   <si>
     <t>vīriya 1</t>
   </si>
   <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
   </si>
   <si>
     <t>kula 2</t>
   </si>
   <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
+    <t>jhāna 2</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>dukkaṭa 3</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>pārājika 3</t>
   </si>
   <si>
     <t>bala 2</t>
   </si>
   <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>dukkaṭa 3</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>pārājika 3</t>
-  </si>
-  <si>
-    <t>saṃyojana 1</t>
-  </si>
-  <si>
-    <t>sīla 1</t>
-  </si>
-  <si>
-    <t>sutta 2.1</t>
+    <t>dukkha 3</t>
   </si>
   <si>
     <t>sukha 2</t>
   </si>
   <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>api 1.7</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>api 1.1</t>
+  </si>
+  <si>
     <t>tāva 1</t>
   </si>
   <si>
-    <t>api 1.7</t>
-  </si>
-  <si>
-    <t>nu</t>
+    <t>api 1.2</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>alaṃ 2</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
-    <t>api 1.1</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
+    <t>gantuṃ</t>
+  </si>
+  <si>
+    <t>kātuṃ 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamituṃ</t>
+  </si>
+  <si>
+    <t>carituṃ 2</t>
   </si>
   <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
-    <t>kātuṃ 1</t>
-  </si>
-  <si>
-    <t>gantuṃ</t>
-  </si>
-  <si>
-    <t>upasaṅkamituṃ</t>
-  </si>
-  <si>
-    <t>carituṃ 2</t>
-  </si>
-  <si>
     <t>āyu 2</t>
   </si>
   <si>
+    <t>cakkhu 1</t>
+  </si>
+  <si>
     <t>vatthu 2</t>
   </si>
   <si>
-    <t>cakkhu 1</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -2683,30 +2683,30 @@
     <t>inf</t>
   </si>
   <si>
+    <t>all; every</t>
+  </si>
+  <si>
     <t>another; other; different; someone else; not oneself</t>
   </si>
   <si>
+    <t>other; another (person)</t>
+  </si>
+  <si>
     <t>a certain; a</t>
   </si>
   <si>
-    <t>all; every</t>
-  </si>
-  <si>
-    <t>other; another (person)</t>
-  </si>
-  <si>
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
     <t>knowing; being aware (of)</t>
   </si>
   <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
     <t>standing; standing still</t>
   </si>
   <si>
@@ -2737,327 +2737,327 @@
     <t>this</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>being reborn; re-arising; lit. going towards</t>
+  </si>
+  <si>
     <t>falling away; dying</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>being reborn; re-arising; lit. going towards</t>
+    <t>middle; middling; medium; medium-sized; moderate</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>another; after; further; next</t>
+  </si>
+  <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
+    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
+  </si>
+  <si>
+    <t>careless; heedless; negligent; inattentive</t>
+  </si>
+  <si>
+    <t>healthy; beneficial; useful; good; wholesome</t>
+  </si>
+  <si>
+    <t>healthy; free from disease</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
+    <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
+  </si>
+  <si>
+    <t>permanent; lasting; continuous; ordered; stable; reliable; regular; immutable</t>
+  </si>
+  <si>
+    <t>divine; heavenly; celestial</t>
+  </si>
+  <si>
+    <t>empty; uninhabited</t>
+  </si>
+  <si>
+    <t>stationary; stable; stabilised; motionless; immovable</t>
+  </si>
+  <si>
+    <t>ready; workable; suitable for use; functional</t>
+  </si>
+  <si>
+    <t>spotless; blemish free</t>
+  </si>
+  <si>
+    <t>pure; clean; shiny; bright; lit. become pure</t>
+  </si>
+  <si>
+    <t>coarse; gross; substantial; physical; material</t>
+  </si>
+  <si>
+    <t>all; whole lot; altogether; total; entire; complete</t>
+  </si>
+  <si>
+    <t>mindful; present; attentive</t>
+  </si>
+  <si>
+    <t>fine; subtle; refined</t>
+  </si>
+  <si>
+    <t>experienced; learned; competent; trained; lit. distinguished</t>
+  </si>
+  <si>
+    <t>expert; skilled; able; adroit</t>
+  </si>
+  <si>
+    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>essential; substantial; valuable; sound</t>
+  </si>
+  <si>
+    <t>low; inferior; deficient</t>
+  </si>
+  <si>
+    <t>easily done; easy to do; easy to make</t>
+  </si>
+  <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>possessing; endowed (with); having; lit. going together</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>righteous; just; lit. according to the Dhamma</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
   </si>
   <si>
     <t>sexual</t>
   </si>
   <si>
-    <t>careless; heedless; negligent; inattentive</t>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>directly visible; evident; real; perceivable; (comm) able to be seen by oneself</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
+  </si>
+  <si>
+    <t>not accessible; not approachable; lit. with no space around</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>dark; black</t>
   </si>
   <si>
     <t>brownish; colour of Buddhist monks’ robes</t>
   </si>
   <si>
-    <t>coarse; gross; substantial; physical; material</t>
-  </si>
-  <si>
-    <t>healthy; beneficial; useful; good; wholesome</t>
-  </si>
-  <si>
-    <t>healthy; free from disease</t>
-  </si>
-  <si>
-    <t>possessing; endowed (with); having; lit. going together</t>
-  </si>
-  <si>
-    <t>expert; skilled; able; adroit</t>
-  </si>
-  <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
-    <t>low; inferior; deficient</t>
-  </si>
-  <si>
-    <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
-  </si>
-  <si>
-    <t>permanent; lasting; continuous; ordered; stable; reliable; regular; immutable</t>
-  </si>
-  <si>
-    <t>directly visible; evident; real; perceivable; (comm) able to be seen by oneself</t>
-  </si>
-  <si>
-    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
-  </si>
-  <si>
-    <t>divine; heavenly; celestial</t>
-  </si>
-  <si>
-    <t>stationary; stable; stabilised; motionless; immovable</t>
-  </si>
-  <si>
-    <t>ready; workable; suitable for use; functional</t>
-  </si>
-  <si>
-    <t>spotless; blemish free</t>
-  </si>
-  <si>
-    <t>pure; clean; shiny; bright; lit. become pure</t>
-  </si>
-  <si>
-    <t>all; whole lot; altogether; total; entire; complete</t>
-  </si>
-  <si>
-    <t>another; after; further; next</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>not accessible; not approachable; lit. with no space around</t>
-  </si>
-  <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
-  </si>
-  <si>
-    <t>righteous; just; lit. according to the Dhamma</t>
-  </si>
-  <si>
-    <t>mindful; present; attentive</t>
-  </si>
-  <si>
-    <t>middle; middling; medium; medium-sized; moderate</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do; easy to make</t>
-  </si>
-  <si>
-    <t>experienced; learned; competent; trained; lit. distinguished</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
-  </si>
-  <si>
-    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
+    <t>right (hand side)</t>
+  </si>
+  <si>
+    <t>secluded; isolated; solitary</t>
   </si>
   <si>
     <t>existing; born; living; lit. become</t>
   </si>
   <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
     <t>heavenly</t>
   </si>
   <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>harmful; hurtful; injurious (to living creatures)</t>
   </si>
   <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>right (hand side)</t>
-  </si>
-  <si>
-    <t>secluded; isolated; solitary</t>
-  </si>
-  <si>
-    <t>essential; substantial; valuable; sound</t>
-  </si>
-  <si>
-    <t>fine; subtle; refined</t>
-  </si>
-  <si>
-    <t>empty; uninhabited</t>
-  </si>
-  <si>
     <t>Fortunate One; epithet of the Buddha; lit. well gone</t>
   </si>
   <si>
+    <t>said; told; declared; announced</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>come (from); arrived (from); returned (from)</t>
+  </si>
+  <si>
+    <t>seated</t>
+  </si>
+  <si>
+    <t>indignant; angry; annoyed; outraged; offended</t>
+  </si>
+  <si>
+    <t>passed away; died</t>
+  </si>
+  <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
+    <t>said; told; spoken; mentioned</t>
+  </si>
+  <si>
+    <t>afflicted; miserable; suffering</t>
+  </si>
+  <si>
+    <t>freed (from); released (from); saved (from)</t>
+  </si>
+  <si>
+    <t>unborn; unarisen; not existing; nonexistent</t>
+  </si>
+  <si>
     <t>preached (by); taught (by); explained (by); instructed (by)</t>
   </si>
   <si>
-    <t>said; told; declared; announced</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>come (from); arrived (from); returned (from)</t>
+    <t>present; in attendance; available; lit. stood near</t>
   </si>
   <si>
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>indignant; angry; annoyed; outraged; offended</t>
-  </si>
-  <si>
-    <t>said; told; spoken; mentioned</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
+    <t>given (to); offered (to)</t>
+  </si>
+  <si>
+    <t>arisen; appeared; come into being</t>
+  </si>
+  <si>
+    <t>touched (by); contacted (by); experienced</t>
+  </si>
+  <si>
+    <t>consumed; spent; finished; exhausted; slowly destroyed</t>
+  </si>
+  <si>
+    <t>seen; found; visible</t>
+  </si>
+  <si>
+    <t>aroused; applied; undertaken</t>
+  </si>
+  <si>
+    <t>not made; not created</t>
+  </si>
+  <si>
+    <t>not become; not happened</t>
   </si>
   <si>
     <t>bent back; folded back; flexed back</t>
   </si>
   <si>
-    <t>seated</t>
-  </si>
-  <si>
-    <t>afflicted; miserable; suffering</t>
-  </si>
-  <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>not become; not happened</t>
-  </si>
-  <si>
-    <t>not made; not created</t>
-  </si>
-  <si>
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
-    <t>consumed; spent; finished; exhausted; slowly destroyed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>unborn; unarisen; not existing; nonexistent</t>
-  </si>
-  <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
-    <t>seen; found; visible</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>freed (from); released (from); saved (from)</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>arisen; appeared; come into being</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; available; lit. stood near</t>
-  </si>
-  <si>
-    <t>given (to); offered (to)</t>
-  </si>
-  <si>
-    <t>passed away; died</t>
-  </si>
-  <si>
-    <t>touched (by); contacted (by); experienced</t>
-  </si>
-  <si>
-    <t>aroused; applied; undertaken</t>
+    <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
     <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
   </si>
   <si>
-    <t>bad; wicked; evil; wrong; worthless; harmful</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -3067,13 +3067,16 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
+    <t>as impersonal; as not oneself; as non-subjective</t>
+  </si>
+  <si>
     <t>as dangerous; as fearful</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
-    <t>as impersonal; as not oneself; as non-subjective</t>
+    <t>straight; upright; erect</t>
   </si>
   <si>
     <t>many; much; lots (of); a lot (of); great; large</t>
@@ -3082,9 +3085,6 @@
     <t>respected; esteemed; giving weight to</t>
   </si>
   <si>
-    <t>straight; upright; erect</t>
-  </si>
-  <si>
     <t>avid; ardent; zealous; with continuous effort; lit. burning</t>
   </si>
   <si>
@@ -3094,57 +3094,57 @@
     <t>wise; intelligent; discerning; knowledgeable</t>
   </si>
   <si>
+    <t>second (2nd)</t>
+  </si>
+  <si>
+    <t>first (1st); prime</t>
+  </si>
+  <si>
     <t>third (3rd)</t>
   </si>
   <si>
-    <t>second (2nd)</t>
-  </si>
-  <si>
-    <t>first (1st); prime</t>
+    <t>eight (8)</t>
   </si>
   <si>
     <t>nine (9)</t>
   </si>
   <si>
+    <t>five (5)</t>
+  </si>
+  <si>
     <t>seven (7)</t>
   </si>
   <si>
-    <t>five (5)</t>
-  </si>
-  <si>
     <t>six (6)</t>
   </si>
   <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
     <t>ten (10)</t>
   </si>
   <si>
+    <t>one thousand (1000)</t>
+  </si>
+  <si>
     <t>one hundred (100)</t>
   </si>
   <si>
-    <t>one thousand (1000)</t>
-  </si>
-  <si>
     <t>sixth (6th)</t>
   </si>
   <si>
+    <t>fourth (4th)</t>
+  </si>
+  <si>
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>fifth (5th)</t>
+  </si>
+  <si>
     <t>tenth (10th)</t>
   </si>
   <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>fifth (5th)</t>
-  </si>
-  <si>
-    <t>fourth (4th)</t>
-  </si>
-  <si>
     <t>four (4)</t>
   </si>
   <si>
@@ -3157,201 +3157,216 @@
     <t>three (3)</t>
   </si>
   <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is perturbed; is shaken; is agitated; is anguished</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>disappears; vanishes; perishes; is destroyed</t>
+  </si>
+  <si>
     <t>is called; is named; is said to be</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
   </si>
   <si>
     <t>dissolves; finishes; stops; ceases; vanishes</t>
   </si>
   <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is cut off; is severed</t>
+  </si>
+  <si>
     <t>is known; is evident; is perceived</t>
   </si>
   <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
     <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
   </si>
   <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is cut off; is severed</t>
-  </si>
-  <si>
-    <t>is perturbed; is shaken; is agitated; is anguished</t>
-  </si>
-  <si>
-    <t>disappears; vanishes; perishes; is destroyed</t>
+    <t>apart (from); aside (from); other (than); except (for); without</t>
+  </si>
+  <si>
+    <t>for a long time</t>
+  </si>
+  <si>
+    <t>(of place) from here; away from; lit. from this</t>
+  </si>
+  <si>
+    <t>indeed; surely; certainly; truly</t>
+  </si>
+  <si>
+    <t>thus; like this; this is; and so</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
+    <t>away (from); far away (from); distant (from)</t>
+  </si>
+  <si>
+    <t>externally; outwardly</t>
+  </si>
+  <si>
+    <t>indeed; certainly; truly; definitely</t>
+  </si>
+  <si>
+    <t>by day; during the day; for a day</t>
+  </si>
+  <si>
+    <t>well; carefully; thoroughly; fully; completely</t>
+  </si>
+  <si>
+    <t>internally; inwardly; personally</t>
+  </si>
+  <si>
+    <t>so; thus; in such a way; likewise; similarly</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>in every way; completely; altogether; lit. from all</t>
+  </si>
+  <si>
+    <t>there; in such-and-such a place</t>
+  </si>
+  <si>
+    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
+    <t>behind; backwards; lit. from behind</t>
+  </si>
+  <si>
+    <t>truly; really</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>below; under</t>
+  </si>
+  <si>
+    <t>again; once more</t>
+  </si>
+  <si>
+    <t>really; truly; definitely</t>
+  </si>
+  <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>perfectly; rightly; correctly; properly</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>like; as; as per; according to; how; in whatever way</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
+  </si>
+  <si>
+    <t>then; also; and so; after that</t>
+  </si>
+  <si>
+    <t>differently; otherwise</t>
+  </si>
+  <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>apart (from); aside (from); other (than); except (for); without</t>
-  </si>
-  <si>
-    <t>in every way; completely; altogether; lit. from all</t>
-  </si>
-  <si>
-    <t>perfectly; rightly; correctly; properly</t>
-  </si>
-  <si>
-    <t>for a long time</t>
-  </si>
-  <si>
-    <t>indeed; surely; certainly; truly</t>
-  </si>
-  <si>
-    <t>so; thus; in such a way; likewise; similarly</t>
-  </si>
-  <si>
-    <t>like; as; as per; according to; how; in whatever way</t>
-  </si>
-  <si>
-    <t>truly; really</t>
-  </si>
-  <si>
-    <t>indeed; certainly; truly; definitely</t>
-  </si>
-  <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
-    <t>away (from); far away (from); distant (from)</t>
-  </si>
-  <si>
-    <t>externally; outwardly</t>
-  </si>
-  <si>
-    <t>well; carefully; thoroughly; fully; completely</t>
-  </si>
-  <si>
-    <t>by day; during the day; for a day</t>
-  </si>
-  <si>
-    <t>again; once more</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>thus; like this; this is; and so</t>
-  </si>
-  <si>
-    <t>there; in such-and-such a place</t>
-  </si>
-  <si>
-    <t>(of place) from here; away from; lit. from this</t>
-  </si>
-  <si>
-    <t>behind; backwards; lit. from behind</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>below; under</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
-  </si>
-  <si>
-    <t>internally; inwardly; personally</t>
-  </si>
-  <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>really; truly; definitely</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
     <t>but; rather; even</t>
   </si>
   <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
-    <t>then; also; and so; after that</t>
-  </si>
-  <si>
-    <t>differently; otherwise</t>
+    <t>being eaten (by); being devoured (by); lit. being chewed</t>
   </si>
   <si>
     <t>existing (in); being found (in)</t>
   </si>
   <si>
-    <t>being eaten (by); being devoured (by); lit. being chewed</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
     <t>thief; robber</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
     <t>state of existence; form of becoming</t>
   </si>
   <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -3361,471 +3376,456 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
     <t>control (over); authority (over); power (over); mastery (over)</t>
   </si>
   <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>bean</t>
   </si>
   <si>
     <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
     <t>watch (of the night); one eighth of the day; about three hours</t>
   </si>
   <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+    <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
     <t>control (according to); restraint (according to); holding back (according to)</t>
   </si>
   <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>sage; intelligent person; wise man; smart person</t>
   </si>
   <si>
@@ -3841,202 +3841,205 @@
     <t>appearing again; renewed existence; rebirth; future life</t>
   </si>
   <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
     <t>(vinaya) precepts for Buddhist monastics</t>
   </si>
   <si>
-    <t>analysis; classification; breakdown; lit. division</t>
-  </si>
-  <si>
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
     <t>practices; indulges (in); engages (in); lit. associates</t>
   </si>
   <si>
+    <t>binds; ties up; imprisons; confines</t>
+  </si>
+  <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
     <t>removes; takes away; packs up</t>
   </si>
   <si>
-    <t>binds; ties up; imprisons; confines</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
     <t>ordains as monk; renounces the household life; lit. goes into exile</t>
   </si>
   <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
     <t>exhales; breathes out</t>
   </si>
   <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
-    <t>personally experiences; undergoes; feels</t>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
     <t>feels; experiences; senses; notices</t>
@@ -4045,9 +4048,6 @@
     <t>sleeps</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
@@ -4060,111 +4060,111 @@
     <t>is able (to)</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>(of an apology) accepts</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
+  </si>
+  <si>
+    <t>knows; knows clearly; understands; distinguishes</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>applies effort; strives on; goes for it; endeavours</t>
   </si>
   <si>
-    <t>(of an apology) accepts</t>
-  </si>
-  <si>
-    <t>hears</t>
-  </si>
-  <si>
-    <t>one must listen!; it must hear!</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
-    <t>knows; knows clearly; understands; distinguishes</t>
-  </si>
-  <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>takes; accepts; receives</t>
+    <t>farmer; ploughman</t>
   </si>
   <si>
     <t>trader; dealer</t>
   </si>
   <si>
-    <t>farmer; ploughman</t>
-  </si>
-  <si>
     <t>engages (in); practices; performs</t>
   </si>
   <si>
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
     <t>causes; effects</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>I am</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -4174,84 +4174,84 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
+  </si>
+  <si>
+    <t>is able (to); is capable (of); is qualified (to)</t>
+  </si>
+  <si>
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
-    <t>may it be (for)!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>is able (to); is capable (of); is qualified (to)</t>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
     <t>replied (to); agreed (with)</t>
   </si>
   <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
+  </si>
+  <si>
+    <t>palms placed together (as a token of respect)</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>fine rice</t>
+  </si>
+  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
-    <t>fine rice</t>
+    <t>fire</t>
   </si>
   <si>
     <t>stomach; belly</t>
   </si>
   <si>
-    <t>fire</t>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
   </si>
   <si>
     <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>palms placed together (as a token of respect)</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
@@ -4279,76 +4279,85 @@
     <t>was</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
+    <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
+  </si>
+  <si>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
-    <t>livelihood; mode of living; way of life; way of earning a living</t>
-  </si>
-  <si>
-    <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
-  </si>
-  <si>
     <t>my; mine; of me</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
     <t>by me; with me</t>
   </si>
   <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
-    <t>we; I (royal plural)</t>
-  </si>
-  <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>our; of us; my (royal plural)</t>
   </si>
   <si>
     <t>by me</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>me (object)</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>looks beautiful (in); lit. shines</t>
-  </si>
-  <si>
     <t>will exhale; will breathe out</t>
   </si>
   <si>
+    <t>leads; carries away; takes away</t>
+  </si>
+  <si>
     <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
-    <t>leads; carries away; takes away</t>
+    <t>no; not</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -4357,18 +4366,9 @@
     <t>together (with); with</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>no; not</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
-  </si>
-  <si>
     <t>could be; should be; lit. will be</t>
   </si>
   <si>
@@ -4387,45 +4387,45 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>you (object)</t>
+  </si>
+  <si>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>you all; you (royal plural)</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>your; of you</t>
+  </si>
+  <si>
     <t>to you all; for you all</t>
   </si>
   <si>
+    <t>you (subject)</t>
+  </si>
+  <si>
     <t>by you all; with you all</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>for you all; to you all</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>of you all; yours</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>for you all; to you all</t>
-  </si>
-  <si>
     <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
-    <t>you all; you (royal plural)</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
-    <t>you (subject)</t>
-  </si>
-  <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your; of you</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -4441,42 +4441,42 @@
     <t>who sees; who knows; who perceives; who understands</t>
   </si>
   <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
+  </si>
+  <si>
+    <t>righteous; religious; moral; related to the Dhamma</t>
+  </si>
+  <si>
+    <t>seeking; searching for; looking for</t>
+  </si>
+  <si>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>enjoying; using; experiencing; partaking in</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
+  </si>
+  <si>
     <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
-    <t>enjoying; using; experiencing; partaking in</t>
-  </si>
-  <si>
-    <t>righteous; religious; moral; related to the Dhamma</t>
-  </si>
-  <si>
-    <t>looking (at); observing; following; noticing; witnessing; watching</t>
-  </si>
-  <si>
-    <t>seeking; searching for; looking for</t>
-  </si>
-  <si>
-    <t>who does not return; non-returning</t>
-  </si>
-  <si>
-    <t>once-returner; who has attained the second stage of the path</t>
-  </si>
-  <si>
     <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
+    <t>fellow monk; spiritual companion</t>
+  </si>
+  <si>
+    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
+  </si>
+  <si>
+    <t>bird; lit. with wings</t>
+  </si>
+  <si>
     <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
-    <t>fellow monk; spiritual companion</t>
-  </si>
-  <si>
-    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
-  </si>
-  <si>
-    <t>bird; lit. with wings</t>
-  </si>
-  <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
@@ -4507,19 +4507,22 @@
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
+    <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
+  </si>
+  <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>master; teacher</t>
   </si>
   <si>
+    <t>giver; donor; bestower</t>
+  </si>
+  <si>
     <t>creator; maker</t>
   </si>
   <si>
-    <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
-  </si>
-  <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
-    <t>giver; donor; bestower</t>
+    <t>brother</t>
   </si>
   <si>
     <t>father</t>
@@ -4528,108 +4531,105 @@
     <t>mother and father; parents</t>
   </si>
   <si>
-    <t>brother</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>always; at all times</t>
+  </si>
+  <si>
     <t>now; immediately</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
+    <t>in future</t>
+  </si>
+  <si>
+    <t>and; both</t>
+  </si>
+  <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
-    <t>in future</t>
-  </si>
-  <si>
     <t>or; either or</t>
   </si>
   <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>always; ever; all the time</t>
+  </si>
+  <si>
     <t>when; whenever</t>
   </si>
   <si>
-    <t>always; ever; all the time</t>
-  </si>
-  <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>and; both</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
-    <t>always; at all times</t>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
+    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
+  </si>
+  <si>
+    <t>death; Death</t>
   </si>
   <si>
     <t>respect; honour</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
-    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
-  </si>
-  <si>
-    <t>death; Death</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
+    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
+  </si>
+  <si>
     <t>old; experienced; of long standing; lit. knowing nights</t>
   </si>
   <si>
     <t>wise; knowing; understanding</t>
   </si>
   <si>
-    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
-  </si>
-  <si>
     <t>conqueror; victor; vanquisher; master</t>
   </si>
   <si>
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>hiding place; lit. dive</t>
+  </si>
+  <si>
     <t>warding off; repelling; driving off</t>
   </si>
   <si>
-    <t>hiding place; lit. dive</t>
-  </si>
-  <si>
     <t>could go; would move; would walk</t>
   </si>
   <si>
+    <t>could see; would see</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
+    <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
+  </si>
+  <si>
+    <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
+  </si>
+  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
-    <t>could see; would see</t>
-  </si>
-  <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
-    <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
-  </si>
-  <si>
-    <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
-  </si>
-  <si>
     <t>could come; would come along; could approach; would arrive</t>
   </si>
   <si>
@@ -4645,99 +4645,99 @@
     <t>may be; could be; should be</t>
   </si>
   <si>
+    <t>craving (for); wanting; desire (for); lit. thirst</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>direction; cardinal point</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness; greed; lit. over thinking</t>
+  </si>
+  <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
+    <t>goodwill (towards); friendliness (to); benevolence (for)</t>
+  </si>
+  <si>
+    <t>personal experience (of); intimate experience (of); personal realization (of); lit. personally doing</t>
+  </si>
+  <si>
+    <t>looking on; mental poise; mental balance; equanimity; equipoise; non-reactivity; composure</t>
+  </si>
+  <si>
+    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>felt experience; feeling; sensation; second of the five aggregates</t>
+  </si>
+  <si>
+    <t>(vinaya) ordination; renunciation; becoming a monastic; lit. exile</t>
+  </si>
+  <si>
     <t>training; practice</t>
   </si>
   <si>
+    <t>army; military</t>
+  </si>
+  <si>
+    <t>people; population; generation; mankind</t>
+  </si>
+  <si>
+    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
+  </si>
+  <si>
+    <t>old age; ageing</t>
+  </si>
+  <si>
+    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
+  </si>
+  <si>
     <t>verse; poem; stanza; lit. song</t>
   </si>
   <si>
-    <t>old age; ageing</t>
+    <t>speech; words; statement; talk</t>
+  </si>
+  <si>
+    <t>knowledge; wisdom; understanding</t>
+  </si>
+  <si>
+    <t>perception; conception; recognition; third of the five aggregates</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>ignorance; illusion; not knowing; not understanding</t>
+  </si>
+  <si>
+    <t>(vinaya) higher ordination as monastic</t>
+  </si>
+  <si>
+    <t>sub-commentary; commentary on a commentary</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
   </si>
   <si>
     <t>inquiry; judgement; investigation; discrimination</t>
   </si>
   <si>
-    <t>direction; cardinal point</t>
-  </si>
-  <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness; greed; lit. over thinking</t>
-  </si>
-  <si>
-    <t>army; military</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
-  </si>
-  <si>
-    <t>speech; words; statement; talk</t>
-  </si>
-  <si>
-    <t>craving (for); wanting; desire (for); lit. thirst</t>
-  </si>
-  <si>
-    <t>felt experience; feeling; sensation; second of the five aggregates</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
-  </si>
-  <si>
-    <t>(vinaya) ordination; renunciation; becoming a monastic; lit. exile</t>
-  </si>
-  <si>
-    <t>personal experience (of); intimate experience (of); personal realization (of); lit. personally doing</t>
-  </si>
-  <si>
-    <t>people; population; generation; mankind</t>
-  </si>
-  <si>
-    <t>ignorance; illusion; not knowing; not understanding</t>
-  </si>
-  <si>
-    <t>(vinaya) higher ordination as monastic</t>
-  </si>
-  <si>
-    <t>looking on; mental poise; mental balance; equanimity; equipoise; non-reactivity; composure</t>
-  </si>
-  <si>
-    <t>sub-commentary; commentary on a commentary</t>
-  </si>
-  <si>
-    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
-  </si>
-  <si>
-    <t>goodwill (towards); friendliness (to); benevolence (for)</t>
-  </si>
-  <si>
-    <t>perception; conception; recognition; third of the five aggregates</t>
-  </si>
-  <si>
-    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
-  </si>
-  <si>
-    <t>knowledge; wisdom; understanding</t>
-  </si>
-  <si>
-    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
-  </si>
-  <si>
     <t>should know; should understand; should find out</t>
   </si>
   <si>
@@ -4747,129 +4747,129 @@
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
+    <t>having left; having left behind; having abandoned</t>
+  </si>
+  <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having dressed (in); having clothed oneself (in); having put on; lit. having covered</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
-    <t>having dressed (in); having clothed oneself (in); having put on; lit. having covered</t>
-  </si>
-  <si>
-    <t>having left; having left behind; having abandoned</t>
-  </si>
-  <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having raised up; having lifted up</t>
   </si>
   <si>
     <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
   </si>
   <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having raised up; having lifted up</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>undertaking; taking up; accepting</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
-    <t>undertaking; taking up; accepting</t>
-  </si>
-  <si>
     <t>not holding (onto); not grasping (onto); detaching (from); not taking possession (of); lit. not taking near</t>
   </si>
   <si>
     <t>removing; getting rid (of)</t>
   </si>
   <si>
+    <t>attaching; clinging; adhering; sticking</t>
+  </si>
+  <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
-    <t>attaching; clinging; adhering; sticking</t>
+    <t>hut; monk’s dwelling</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
+    <t>view; belief; opinion; concept; theory; attitude</t>
+  </si>
+  <si>
+    <t>good destination; happy fate</t>
   </si>
   <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>(vinaya) offence; wrongdoing; transgression</t>
+  </si>
+  <si>
+    <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
     <t>purity (of); purification (of); holiness</t>
   </si>
   <si>
-    <t>(vinaya) offence; wrongdoing; transgression</t>
-  </si>
-  <si>
-    <t>view; belief; opinion; concept; theory; attitude</t>
-  </si>
-  <si>
     <t>attainment; meditation attainment</t>
   </si>
   <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
-    <t>good destination; happy fate</t>
-  </si>
-  <si>
-    <t>freedom; liberation; release; deliverance</t>
-  </si>
-  <si>
     <t>sense of shame; modesty; conscience; sense of right and wrong; scruples</t>
   </si>
   <si>
@@ -4879,39 +4879,39 @@
     <t>here; now; in this world</t>
   </si>
   <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
     <t>in that regard; in that case; regarding that matter</t>
   </si>
   <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
   </si>
   <si>
     <t>on one side</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
+    <t>from where?; where?</t>
   </si>
   <si>
     <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
   </si>
   <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
-    <t>from where?; where?</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -4921,346 +4921,346 @@
     <t>thirst (for)</t>
   </si>
   <si>
+    <t>fulfilment; completion; perfecting; maturity</t>
+  </si>
+  <si>
+    <t>advice; instruction; teaching</t>
+  </si>
+  <si>
+    <t>name of a city; capital of the Licchavis</t>
+  </si>
+  <si>
+    <t>name of a city; modern Varanasi</t>
+  </si>
+  <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
+    <t>name of a city; capital of Kosala</t>
+  </si>
+  <si>
     <t>woman; female</t>
   </si>
   <si>
     <t>woman</t>
   </si>
   <si>
-    <t>fulfilment; completion; perfecting; maturity</t>
-  </si>
-  <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
-    <t>advice; instruction; teaching</t>
-  </si>
-  <si>
-    <t>name of a city; capital of the Licchavis</t>
-  </si>
-  <si>
-    <t>name of a city; modern Varanasi</t>
-  </si>
-  <si>
-    <t>name of a city; capital of Kosala</t>
-  </si>
-  <si>
     <t>unable (to); impossible (to); incapable (of); unlikely (to); lit. not to be</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
-    <t>for alms; to collect alms food</t>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>being; living being; entity; lit. become</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
   </si>
   <si>
     <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
   </si>
   <si>
     <t>comfortable (for); lit. for the comfort</t>
   </si>
   <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>ethical conduct; virtue; moral integrity</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
   </si>
   <si>
     <t>welfare (of); good (of); benefit (of); blessing</t>
   </si>
   <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>scripture; discourse; sacred text; lit. thread</t>
   </si>
   <si>
     <t>effort; energy; might; power; lit. virility</t>
   </si>
   <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
   </si>
   <si>
     <t>supporter; supporting family; lit. family</t>
   </si>
   <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>head</t>
+    <t>meditation; stage of meditation; lit. meditating</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>class of vinaya offence; wrong-doing; lit. badly done</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
   </si>
   <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>being; living being; entity; lit. become</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>class of vinaya offence; wrong-doing; lit. badly done</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
-  </si>
-  <si>
-    <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
-  </si>
-  <si>
-    <t>ethical conduct; virtue; moral integrity</t>
-  </si>
-  <si>
-    <t>scripture; discourse; sacred text; lit. thread</t>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
   </si>
   <si>
     <t>ease; comfort; happiness; pleasure; contentment</t>
   </si>
   <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
     <t>bone</t>
   </si>
   <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+  </si>
+  <si>
+    <t>just; only</t>
+  </si>
+  <si>
     <t>that much; that far; as long as; to that extent; until; at least</t>
   </si>
   <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>even; even then</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
-    <t>just; only</t>
-  </si>
-  <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+    <t>to go (to); to travel (to)</t>
+  </si>
+  <si>
+    <t>to do; to perform</t>
+  </si>
+  <si>
+    <t>to approach; to visit; to go (to)</t>
+  </si>
+  <si>
+    <t>to walk (in); to wander (in)</t>
   </si>
   <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
-    <t>to do; to perform</t>
-  </si>
-  <si>
-    <t>to go (to); to travel (to)</t>
-  </si>
-  <si>
-    <t>to approach; to visit; to go (to)</t>
-  </si>
-  <si>
-    <t>to walk (in); to wander (in)</t>
-  </si>
-  <si>
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>eye</t>
+  </si>
+  <si>
     <t>site; location; base; grounds; lit. ground</t>
-  </si>
-  <si>
-    <t>eye</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -9269,7 +9269,7 @@
         <v>876</v>
       </c>
       <c r="C201" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="D201" t="s">
         <v>876</v>
@@ -9286,7 +9286,7 @@
         <v>876</v>
       </c>
       <c r="C202" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D202" t="s">
         <v>876</v>
@@ -9303,7 +9303,7 @@
         <v>876</v>
       </c>
       <c r="C203" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D203" t="s">
         <v>876</v>
@@ -9320,7 +9320,7 @@
         <v>876</v>
       </c>
       <c r="C204" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D204" t="s">
         <v>876</v>
@@ -9337,7 +9337,7 @@
         <v>876</v>
       </c>
       <c r="C205" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D205" t="s">
         <v>876</v>
@@ -9623,13 +9623,13 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C222" t="s">
         <v>1108</v>
       </c>
       <c r="D222" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E222" t="s">
         <v>1820</v>
@@ -11020,7 +11020,7 @@
         <v>874</v>
       </c>
       <c r="C304" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="D304" t="s">
         <v>1756</v>
@@ -11037,7 +11037,7 @@
         <v>874</v>
       </c>
       <c r="C305" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D305" t="s">
         <v>1756</v>
@@ -11054,7 +11054,7 @@
         <v>874</v>
       </c>
       <c r="C306" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D306" t="s">
         <v>1756</v>
@@ -11071,7 +11071,7 @@
         <v>874</v>
       </c>
       <c r="C307" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D307" t="s">
         <v>1756</v>
@@ -11088,7 +11088,7 @@
         <v>874</v>
       </c>
       <c r="C308" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D308" t="s">
         <v>1756</v>
@@ -11105,7 +11105,7 @@
         <v>874</v>
       </c>
       <c r="C309" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D309" t="s">
         <v>1756</v>
@@ -11122,7 +11122,7 @@
         <v>874</v>
       </c>
       <c r="C310" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D310" t="s">
         <v>1756</v>
@@ -11139,7 +11139,7 @@
         <v>874</v>
       </c>
       <c r="C311" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D311" t="s">
         <v>1756</v>
@@ -11156,7 +11156,7 @@
         <v>874</v>
       </c>
       <c r="C312" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D312" t="s">
         <v>1756</v>
@@ -11173,7 +11173,7 @@
         <v>874</v>
       </c>
       <c r="C313" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D313" t="s">
         <v>1756</v>
@@ -11190,7 +11190,7 @@
         <v>874</v>
       </c>
       <c r="C314" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D314" t="s">
         <v>1756</v>
@@ -11207,7 +11207,7 @@
         <v>874</v>
       </c>
       <c r="C315" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D315" t="s">
         <v>1756</v>
@@ -11224,7 +11224,7 @@
         <v>874</v>
       </c>
       <c r="C316" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D316" t="s">
         <v>1756</v>
@@ -11241,7 +11241,7 @@
         <v>874</v>
       </c>
       <c r="C317" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D317" t="s">
         <v>1756</v>
@@ -11258,7 +11258,7 @@
         <v>874</v>
       </c>
       <c r="C318" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D318" t="s">
         <v>1756</v>
@@ -11275,7 +11275,7 @@
         <v>874</v>
       </c>
       <c r="C319" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D319" t="s">
         <v>1756</v>
@@ -11292,7 +11292,7 @@
         <v>874</v>
       </c>
       <c r="C320" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D320" t="s">
         <v>1756</v>
@@ -11309,7 +11309,7 @@
         <v>874</v>
       </c>
       <c r="C321" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D321" t="s">
         <v>1756</v>
@@ -11326,7 +11326,7 @@
         <v>874</v>
       </c>
       <c r="C322" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D322" t="s">
         <v>1756</v>
@@ -11343,7 +11343,7 @@
         <v>874</v>
       </c>
       <c r="C323" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D323" t="s">
         <v>1756</v>
@@ -11360,7 +11360,7 @@
         <v>874</v>
       </c>
       <c r="C324" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D324" t="s">
         <v>1756</v>
@@ -11377,7 +11377,7 @@
         <v>874</v>
       </c>
       <c r="C325" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D325" t="s">
         <v>1756</v>
@@ -11394,7 +11394,7 @@
         <v>874</v>
       </c>
       <c r="C326" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D326" t="s">
         <v>1756</v>
@@ -11411,7 +11411,7 @@
         <v>874</v>
       </c>
       <c r="C327" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D327" t="s">
         <v>1756</v>
@@ -11428,7 +11428,7 @@
         <v>874</v>
       </c>
       <c r="C328" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D328" t="s">
         <v>1756</v>
@@ -11445,7 +11445,7 @@
         <v>874</v>
       </c>
       <c r="C329" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D329" t="s">
         <v>1756</v>
@@ -11462,7 +11462,7 @@
         <v>874</v>
       </c>
       <c r="C330" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D330" t="s">
         <v>1756</v>
@@ -11479,7 +11479,7 @@
         <v>874</v>
       </c>
       <c r="C331" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D331" t="s">
         <v>1756</v>
@@ -11496,7 +11496,7 @@
         <v>874</v>
       </c>
       <c r="C332" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D332" t="s">
         <v>1756</v>
@@ -11513,7 +11513,7 @@
         <v>874</v>
       </c>
       <c r="C333" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D333" t="s">
         <v>1756</v>
@@ -11530,7 +11530,7 @@
         <v>874</v>
       </c>
       <c r="C334" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D334" t="s">
         <v>1756</v>
@@ -11547,7 +11547,7 @@
         <v>874</v>
       </c>
       <c r="C335" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D335" t="s">
         <v>1756</v>
@@ -11564,7 +11564,7 @@
         <v>874</v>
       </c>
       <c r="C336" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D336" t="s">
         <v>1756</v>
@@ -11581,7 +11581,7 @@
         <v>874</v>
       </c>
       <c r="C337" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D337" t="s">
         <v>1756</v>
@@ -11598,7 +11598,7 @@
         <v>874</v>
       </c>
       <c r="C338" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D338" t="s">
         <v>1756</v>
@@ -11615,7 +11615,7 @@
         <v>874</v>
       </c>
       <c r="C339" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D339" t="s">
         <v>1756</v>
@@ -11632,7 +11632,7 @@
         <v>874</v>
       </c>
       <c r="C340" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D340" t="s">
         <v>1756</v>
@@ -11649,7 +11649,7 @@
         <v>874</v>
       </c>
       <c r="C341" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D341" t="s">
         <v>1756</v>
@@ -11666,7 +11666,7 @@
         <v>874</v>
       </c>
       <c r="C342" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D342" t="s">
         <v>1756</v>
@@ -11683,7 +11683,7 @@
         <v>874</v>
       </c>
       <c r="C343" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D343" t="s">
         <v>1756</v>
@@ -11700,7 +11700,7 @@
         <v>874</v>
       </c>
       <c r="C344" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D344" t="s">
         <v>1756</v>
@@ -11717,7 +11717,7 @@
         <v>874</v>
       </c>
       <c r="C345" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D345" t="s">
         <v>1756</v>
@@ -11734,7 +11734,7 @@
         <v>874</v>
       </c>
       <c r="C346" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D346" t="s">
         <v>1756</v>
@@ -11751,7 +11751,7 @@
         <v>874</v>
       </c>
       <c r="C347" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D347" t="s">
         <v>1756</v>
@@ -11768,7 +11768,7 @@
         <v>874</v>
       </c>
       <c r="C348" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D348" t="s">
         <v>1756</v>
@@ -11785,7 +11785,7 @@
         <v>874</v>
       </c>
       <c r="C349" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D349" t="s">
         <v>1756</v>
@@ -11802,7 +11802,7 @@
         <v>874</v>
       </c>
       <c r="C350" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D350" t="s">
         <v>1756</v>
@@ -11819,7 +11819,7 @@
         <v>874</v>
       </c>
       <c r="C351" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D351" t="s">
         <v>1756</v>
@@ -11836,7 +11836,7 @@
         <v>874</v>
       </c>
       <c r="C352" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D352" t="s">
         <v>1756</v>
@@ -11853,7 +11853,7 @@
         <v>874</v>
       </c>
       <c r="C353" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D353" t="s">
         <v>1756</v>
@@ -11870,7 +11870,7 @@
         <v>874</v>
       </c>
       <c r="C354" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D354" t="s">
         <v>1756</v>
@@ -11887,7 +11887,7 @@
         <v>874</v>
       </c>
       <c r="C355" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D355" t="s">
         <v>1756</v>
@@ -11904,7 +11904,7 @@
         <v>874</v>
       </c>
       <c r="C356" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D356" t="s">
         <v>1756</v>
@@ -11921,7 +11921,7 @@
         <v>874</v>
       </c>
       <c r="C357" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D357" t="s">
         <v>1756</v>
@@ -11938,7 +11938,7 @@
         <v>874</v>
       </c>
       <c r="C358" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D358" t="s">
         <v>1756</v>
@@ -11955,7 +11955,7 @@
         <v>874</v>
       </c>
       <c r="C359" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D359" t="s">
         <v>1756</v>
@@ -11972,7 +11972,7 @@
         <v>874</v>
       </c>
       <c r="C360" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D360" t="s">
         <v>1756</v>
@@ -11989,7 +11989,7 @@
         <v>874</v>
       </c>
       <c r="C361" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D361" t="s">
         <v>1756</v>
@@ -12006,7 +12006,7 @@
         <v>874</v>
       </c>
       <c r="C362" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D362" t="s">
         <v>1756</v>
@@ -12023,7 +12023,7 @@
         <v>874</v>
       </c>
       <c r="C363" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D363" t="s">
         <v>1756</v>
@@ -12040,7 +12040,7 @@
         <v>874</v>
       </c>
       <c r="C364" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D364" t="s">
         <v>1756</v>
@@ -12057,7 +12057,7 @@
         <v>874</v>
       </c>
       <c r="C365" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D365" t="s">
         <v>1756</v>
@@ -12074,7 +12074,7 @@
         <v>874</v>
       </c>
       <c r="C366" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D366" t="s">
         <v>1756</v>
@@ -12091,7 +12091,7 @@
         <v>874</v>
       </c>
       <c r="C367" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D367" t="s">
         <v>1756</v>
@@ -12108,7 +12108,7 @@
         <v>874</v>
       </c>
       <c r="C368" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D368" t="s">
         <v>1756</v>
@@ -12125,7 +12125,7 @@
         <v>874</v>
       </c>
       <c r="C369" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D369" t="s">
         <v>1756</v>
@@ -12142,7 +12142,7 @@
         <v>874</v>
       </c>
       <c r="C370" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D370" t="s">
         <v>1756</v>
@@ -12159,7 +12159,7 @@
         <v>874</v>
       </c>
       <c r="C371" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D371" t="s">
         <v>1756</v>
@@ -12176,7 +12176,7 @@
         <v>874</v>
       </c>
       <c r="C372" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D372" t="s">
         <v>1756</v>
@@ -12193,7 +12193,7 @@
         <v>874</v>
       </c>
       <c r="C373" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D373" t="s">
         <v>1756</v>
@@ -12210,7 +12210,7 @@
         <v>874</v>
       </c>
       <c r="C374" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D374" t="s">
         <v>1756</v>
@@ -12227,7 +12227,7 @@
         <v>874</v>
       </c>
       <c r="C375" t="s">
-        <v>1137</v>
+        <v>1260</v>
       </c>
       <c r="D375" t="s">
         <v>1756</v>
@@ -12717,7 +12717,7 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C404" t="s">
         <v>1289</v>
@@ -12734,7 +12734,7 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C405" t="s">
         <v>1290</v>
@@ -13516,7 +13516,7 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C451" t="s">
         <v>1336</v>
@@ -13533,7 +13533,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C452" t="s">
         <v>1337</v>
@@ -13910,7 +13910,7 @@
         <v>879</v>
       </c>
       <c r="C474" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D474" t="s">
         <v>1779</v>
@@ -13927,7 +13927,7 @@
         <v>879</v>
       </c>
       <c r="C475" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D475" t="s">
         <v>1779</v>
@@ -14281,7 +14281,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C496" t="s">
         <v>1380</v>
@@ -14315,7 +14315,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C498" t="s">
         <v>1382</v>
@@ -14383,7 +14383,7 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C502" t="s">
         <v>1386</v>
@@ -14434,7 +14434,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C505" t="s">
         <v>1389</v>
@@ -15301,7 +15301,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C556" t="s">
         <v>1440</v>
@@ -15318,7 +15318,7 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C557" t="s">
         <v>1441</v>
@@ -15352,7 +15352,7 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C559" t="s">
         <v>1443</v>
@@ -15369,7 +15369,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C560" t="s">
         <v>1444</v>
@@ -16848,7 +16848,7 @@
         <v>650</v>
       </c>
       <c r="B647" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C647" t="s">
         <v>1531</v>
@@ -16950,7 +16950,7 @@
         <v>656</v>
       </c>
       <c r="B653" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C653" t="s">
         <v>1537</v>
@@ -17191,7 +17191,7 @@
         <v>882</v>
       </c>
       <c r="C667" t="s">
-        <v>1199</v>
+        <v>1551</v>
       </c>
       <c r="D667" t="s">
         <v>1807</v>
@@ -17208,7 +17208,7 @@
         <v>882</v>
       </c>
       <c r="C668" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D668" t="s">
         <v>1807</v>
@@ -17225,7 +17225,7 @@
         <v>882</v>
       </c>
       <c r="C669" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D669" t="s">
         <v>1807</v>
@@ -17242,7 +17242,7 @@
         <v>882</v>
       </c>
       <c r="C670" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D670" t="s">
         <v>1807</v>
@@ -17259,7 +17259,7 @@
         <v>882</v>
       </c>
       <c r="C671" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D671" t="s">
         <v>1807</v>
@@ -17276,7 +17276,7 @@
         <v>882</v>
       </c>
       <c r="C672" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D672" t="s">
         <v>1807</v>
@@ -17293,7 +17293,7 @@
         <v>882</v>
       </c>
       <c r="C673" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D673" t="s">
         <v>1807</v>
@@ -17310,7 +17310,7 @@
         <v>882</v>
       </c>
       <c r="C674" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D674" t="s">
         <v>1807</v>
@@ -17327,7 +17327,7 @@
         <v>882</v>
       </c>
       <c r="C675" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D675" t="s">
         <v>1807</v>
@@ -17344,7 +17344,7 @@
         <v>882</v>
       </c>
       <c r="C676" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D676" t="s">
         <v>1807</v>
@@ -17361,7 +17361,7 @@
         <v>882</v>
       </c>
       <c r="C677" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D677" t="s">
         <v>1807</v>
@@ -17378,7 +17378,7 @@
         <v>882</v>
       </c>
       <c r="C678" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D678" t="s">
         <v>1807</v>
@@ -17395,7 +17395,7 @@
         <v>882</v>
       </c>
       <c r="C679" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D679" t="s">
         <v>1807</v>
@@ -17412,7 +17412,7 @@
         <v>882</v>
       </c>
       <c r="C680" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D680" t="s">
         <v>1807</v>
@@ -17429,7 +17429,7 @@
         <v>882</v>
       </c>
       <c r="C681" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D681" t="s">
         <v>1807</v>
@@ -17446,7 +17446,7 @@
         <v>882</v>
       </c>
       <c r="C682" t="s">
-        <v>1565</v>
+        <v>1201</v>
       </c>
       <c r="D682" t="s">
         <v>1807</v>
@@ -17854,7 +17854,7 @@
         <v>885</v>
       </c>
       <c r="C706" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D706" t="s">
         <v>885</v>
@@ -17871,7 +17871,7 @@
         <v>885</v>
       </c>
       <c r="C707" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D707" t="s">
         <v>885</v>
@@ -17888,7 +17888,7 @@
         <v>885</v>
       </c>
       <c r="C708" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D708" t="s">
         <v>885</v>
@@ -18517,7 +18517,7 @@
         <v>876</v>
       </c>
       <c r="C745" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D745" t="s">
         <v>876</v>
@@ -18534,7 +18534,7 @@
         <v>876</v>
       </c>
       <c r="C746" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D746" t="s">
         <v>876</v>
@@ -18551,7 +18551,7 @@
         <v>876</v>
       </c>
       <c r="C747" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D747" t="s">
         <v>876</v>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -205,6 +205,9 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>akusala 1</t>
   </si>
   <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -313,36 +313,36 @@
     <t>kupita</t>
   </si>
   <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
     <t>vutta 2.1</t>
   </si>
   <si>
@@ -547,12 +547,12 @@
     <t>dissati 2</t>
   </si>
   <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -1267,111 +1267,111 @@
     <t>gaṇhati 1</t>
   </si>
   <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>pakkhandati 1</t>
   </si>
   <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -2857,6 +2857,9 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
     <t>clearly aware; fully knowing; completely comprehending</t>
   </si>
   <si>
@@ -2869,9 +2872,6 @@
     <t>unskilful; incompetent; inexperienced</t>
   </si>
   <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for; lit. wished</t>
   </si>
   <si>
@@ -2965,36 +2965,36 @@
     <t>indignant; angry; annoyed; outraged; offended</t>
   </si>
   <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
@@ -3199,12 +3199,12 @@
     <t>seems; lit. is seen</t>
   </si>
   <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -3913,111 +3913,111 @@
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
   </si>
   <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -4174,7 +4174,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -235,12 +235,12 @@
     <t>methuna 1</t>
   </si>
   <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>sassata</t>
   </si>
   <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>dhuva 1</t>
   </si>
   <si>
@@ -1543,30 +1543,30 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>ajjhabhāsi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>ajjhabhāsi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -1828,12 +1828,12 @@
     <t>medhāvī</t>
   </si>
   <si>
+    <t>brahmacārī 2</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
-    <t>brahmacārī 2</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -2887,12 +2887,12 @@
     <t>sexual</t>
   </si>
   <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
   </si>
   <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>stable; enduring; eternal; everlasting</t>
   </si>
   <si>
@@ -3595,7 +3595,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -3880,7 +3880,7 @@
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -4186,30 +4186,30 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -4471,10 +4471,10 @@
     <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
+    <t>celibate man; who abstains from sexual intercourse</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
-  </si>
-  <si>
-    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -2362,108 +2362,108 @@
     <t>vepulla 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -4996,106 +4996,106 @@
     <t>expansion; full development; maturity</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -1588,30 +1588,30 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2929,7 +2929,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>right (hand side)</t>
@@ -4231,30 +4231,30 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -4357,7 +4357,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -4831,7 +4831,7 @@
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -5203,7 +5203,7 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -5227,7 +5227,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class13.xlsx
+++ b/pali-class/vocab/vocab-class13.xlsx
@@ -328,6 +328,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -364,9 +367,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -400,12 +400,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -676,15 +676,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>khajjamāna</t>
   </si>
   <si>
@@ -775,369 +775,369 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1264,6 +1264,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1300,90 +1303,87 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1489,6 +1489,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1501,9 +1504,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
@@ -1675,24 +1675,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1855,15 +1855,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2164,6 +2164,12 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -2182,15 +2188,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2254,18 +2254,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -2404,6 +2404,9 @@
     <t>vera</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -2554,9 +2557,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -2980,6 +2980,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3016,9 +3019,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3052,12 +3052,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -3325,15 +3325,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>being eaten (by); being devoured (by); lit. being chewed</t>
   </si>
   <si>
@@ -3424,366 +3424,366 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -3910,6 +3910,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -3946,90 +3949,87 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4132,6 +4132,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -4144,9 +4147,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
@@ -4318,24 +4318,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -4498,15 +4498,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -4801,6 +4801,12 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -4819,15 +4825,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -4891,15 +4891,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -5038,6 +5038,9 @@
     <t>hatred; ill-will; animosity; hostility</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -5186,9 +5189,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -10986,7 +10986,7 @@
         <v>874</v>
       </c>
       <c r="C302" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="D302" t="s">
         <v>1756</v>
@@ -11003,7 +11003,7 @@
         <v>874</v>
       </c>
       <c r="C303" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D303" t="s">
         <v>1756</v>
@@ -11020,7 +11020,7 @@
         <v>874</v>
       </c>
       <c r="C304" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="D304" t="s">
         <v>1756</v>
@@ -13516,7 +13516,7 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C451" t="s">
         <v>1336</v>
@@ -13533,7 +13533,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C452" t="s">
         <v>1337</v>
@@ -17446,7 +17446,7 @@
         <v>882</v>
       </c>
       <c r="C682" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D682" t="s">
         <v>1807</v>
@@ -18500,7 +18500,7 @@
         <v>876</v>
       </c>
       <c r="C744" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D744" t="s">
         <v>876</v>
@@ -18517,7 +18517,7 @@
         <v>876</v>
       </c>
       <c r="C745" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D745" t="s">
         <v>876</v>
